--- a/Wyniki 3/S2.xlsx
+++ b/Wyniki 3/S2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A156B6-D7E2-4F55-B9E3-FAC12688BBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28FB694-1F9C-4F9B-9683-CC44786AF69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REST" sheetId="1" r:id="rId1"/>
@@ -1072,20 +1072,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E7:K50"/>
+  <dimension ref="E7:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
     <col min="7" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1096,7 +1096,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,891 +1119,1101 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E9" s="8">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="N9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E10" s="9"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="N10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E11" s="9"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="N11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E12" s="9"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="N12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E13" s="9"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="N13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="R13" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E14" s="9"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E15" s="9"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="N15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E16" s="9"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="N16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E17" s="9"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="N17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E18" s="9"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="N18" s="1">
         <v>167502</v>
       </c>
-      <c r="H18" s="1">
+      <c r="O18" s="1">
         <v>167514</v>
       </c>
-      <c r="I18" s="1">
+      <c r="P18" s="1">
         <v>167474</v>
       </c>
-      <c r="J18" s="3">
+      <c r="Q18" s="3">
         <v>167494</v>
       </c>
-      <c r="K18" s="3">
+      <c r="R18" s="3">
         <v>167494</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E19" s="9"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="N19" s="1">
         <v>960.2</v>
       </c>
-      <c r="H19" s="1">
+      <c r="O19" s="1">
         <v>960.1</v>
       </c>
-      <c r="I19" s="1">
+      <c r="P19" s="1">
         <v>960.2</v>
       </c>
-      <c r="J19" s="3">
+      <c r="Q19" s="3">
         <v>960.2</v>
       </c>
-      <c r="K19" s="3">
+      <c r="R19" s="3">
         <v>960.3</v>
       </c>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E20" s="9"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="N20" s="1">
         <v>174.44</v>
       </c>
-      <c r="H20" s="1">
+      <c r="O20" s="1">
         <v>174.47</v>
       </c>
-      <c r="I20" s="1">
+      <c r="P20" s="1">
         <v>174.41</v>
       </c>
-      <c r="J20" s="3">
+      <c r="Q20" s="3">
         <v>174.44</v>
       </c>
-      <c r="K20" s="3">
+      <c r="R20" s="3">
         <v>174.41</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E21" s="9"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="N21" s="1">
         <v>15</v>
       </c>
-      <c r="H21" s="1">
+      <c r="O21" s="1">
         <v>15</v>
       </c>
-      <c r="I21" s="1">
+      <c r="P21" s="1">
         <v>15</v>
       </c>
-      <c r="J21" s="3">
+      <c r="Q21" s="3">
         <v>15</v>
       </c>
-      <c r="K21" s="3">
+      <c r="R21" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E22" s="10"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="N22" s="1">
         <v>17</v>
       </c>
-      <c r="H22" s="1">
+      <c r="O22" s="1">
         <v>17</v>
       </c>
-      <c r="I22" s="1">
+      <c r="P22" s="1">
         <v>17</v>
       </c>
-      <c r="J22" s="3">
+      <c r="Q22" s="3">
         <v>17</v>
       </c>
-      <c r="K22" s="3">
+      <c r="R22" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E23" s="8">
         <v>1000</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="N23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="Q23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="R23" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E24" s="9"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="N24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="Q24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="R24" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E25" s="9"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="N25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="R25" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E26" s="9"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="N26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="O26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="Q26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="R26" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E27" s="9"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="N27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="Q27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="R27" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E28" s="9"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="4">
-        <v>0</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E29" s="9"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="N29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="O29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="P29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="Q29" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="R29" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E30" s="9"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="N30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="O30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="P30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="Q30" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="R30" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E31" s="9"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="N31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="O31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="P31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="Q31" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="R31" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E32" s="9"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="N32" s="2">
         <v>508888</v>
       </c>
-      <c r="H32" s="2">
+      <c r="O32" s="2">
         <v>507826</v>
       </c>
-      <c r="I32" s="2">
+      <c r="P32" s="2">
         <v>508070</v>
       </c>
-      <c r="J32" s="4">
+      <c r="Q32" s="4">
         <v>511162</v>
       </c>
-      <c r="K32" s="4">
+      <c r="R32" s="4">
         <v>510544</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E33" s="9"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="N33" s="2">
         <v>960.6</v>
       </c>
-      <c r="H33" s="2">
+      <c r="O33" s="2">
         <v>960.9</v>
       </c>
-      <c r="I33" s="2">
+      <c r="P33" s="2">
         <v>961</v>
       </c>
-      <c r="J33" s="4">
+      <c r="Q33" s="4">
         <v>961</v>
       </c>
-      <c r="K33" s="4">
+      <c r="R33" s="4">
         <v>960.4</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E34" s="9"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="N34" s="2">
         <v>529.77</v>
       </c>
-      <c r="H34" s="2">
+      <c r="O34" s="2">
         <v>528.5</v>
       </c>
-      <c r="I34" s="2">
+      <c r="P34" s="2">
         <v>528.70000000000005</v>
       </c>
-      <c r="J34" s="4">
+      <c r="Q34" s="4">
         <v>531.9</v>
       </c>
-      <c r="K34" s="4">
+      <c r="R34" s="4">
         <v>531.59</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E35" s="9"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="N35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="O35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="P35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="Q35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="R35" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E36" s="10"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="N36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="O36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="P36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="Q36" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="R36" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E37" s="8">
         <v>4000</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="N37" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="O37" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="P37" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="Q37" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="R37" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E38" s="9"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="N38" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="O38" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="P38" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="Q38" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="R38" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E39" s="9"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="N39" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="O39" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="P39" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="Q39" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="R39" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E40" s="9"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="N40" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="O40" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="P40" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="Q40" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="R40" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E41" s="9"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="N41" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="O41" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="P41" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="Q41" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="R41" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E42" s="9"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G42" s="1">
-        <v>0</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E43" s="9"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="N43" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="O43" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="Q43" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="R43" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E44" s="9"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="N44" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="O44" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="P44" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="Q44" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="R44" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E45" s="9"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="N45" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="O45" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="Q45" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="R45" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E46" s="9"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="N46" s="1">
         <v>518326</v>
       </c>
-      <c r="H46" s="1">
+      <c r="O46" s="1">
         <v>519778</v>
       </c>
-      <c r="I46" s="1">
+      <c r="P46" s="1">
         <v>518252</v>
       </c>
-      <c r="J46" s="3">
+      <c r="Q46" s="3">
         <v>522124</v>
       </c>
-      <c r="K46" s="3">
+      <c r="R46" s="3">
         <v>521958</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E47" s="9"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="N47" s="1">
         <v>960.7</v>
       </c>
-      <c r="H47" s="1">
+      <c r="O47" s="1">
         <v>960.5</v>
       </c>
-      <c r="I47" s="1">
+      <c r="P47" s="1">
         <v>960.6</v>
       </c>
-      <c r="J47" s="3">
+      <c r="Q47" s="3">
         <v>960.8</v>
       </c>
-      <c r="K47" s="3">
+      <c r="R47" s="3">
         <v>960.8</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E48" s="9"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="N48" s="1">
         <v>539.52</v>
       </c>
-      <c r="H48" s="1">
+      <c r="O48" s="1">
         <v>541.15</v>
       </c>
-      <c r="I48" s="1">
+      <c r="P48" s="1">
         <v>539.52</v>
       </c>
-      <c r="J48" s="3">
+      <c r="Q48" s="3">
         <v>543.41999999999996</v>
       </c>
-      <c r="K48" s="3">
+      <c r="R48" s="3">
         <v>543.26</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E49" s="9"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="N49" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="P49" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="Q49" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="R49" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E50" s="10"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="N50" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="O50" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="P50" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="Q50" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="R50" s="3" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2022,18 +2232,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E427240-8CAA-40AB-9EE3-C007F0D8C5C2}">
   <dimension ref="E7:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
     <col min="7" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E7" s="5" t="s">
         <v>158</v>
       </c>
@@ -2044,7 +2254,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2067,7 +2277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E9" s="8">
         <v>100</v>
       </c>
@@ -2090,7 +2300,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E10" s="9"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -2111,7 +2321,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E11" s="9"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -2132,7 +2342,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E12" s="9"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -2153,7 +2363,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E13" s="9"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -2174,7 +2384,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E14" s="9"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -2195,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E15" s="9"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -2216,7 +2426,7 @@
         <v>42.68</v>
       </c>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E16" s="9"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -2237,7 +2447,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E17" s="9"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -2258,7 +2468,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E18" s="9"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -2279,7 +2489,7 @@
         <v>83926</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E19" s="9"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -2300,7 +2510,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E20" s="9"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -2321,7 +2531,7 @@
         <v>87.42</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E21" s="9"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -2342,7 +2552,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E22" s="10"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -2363,7 +2573,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E23" s="8">
         <v>1000</v>
       </c>
@@ -2386,7 +2596,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E24" s="9"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -2407,7 +2617,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E25" s="9"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -2428,7 +2638,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E26" s="9"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -2449,7 +2659,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E27" s="9"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -2470,7 +2680,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E28" s="9"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -2491,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E29" s="9"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -2512,7 +2722,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E30" s="9"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -2533,7 +2743,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E31" s="9"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -2554,7 +2764,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E32" s="9"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -2575,7 +2785,7 @@
         <v>839084</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E33" s="9"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -2596,7 +2806,7 @@
         <v>960.7</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E34" s="9"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -2617,7 +2827,7 @@
         <v>873.39</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E35" s="9"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -2638,7 +2848,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E36" s="10"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -2659,7 +2869,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E37" s="8">
         <v>4000</v>
       </c>
@@ -2682,7 +2892,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E38" s="9"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -2703,7 +2913,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E39" s="9"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -2724,7 +2934,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E40" s="9"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -2745,7 +2955,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E41" s="9"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -2766,7 +2976,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E42" s="9"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -2787,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E43" s="9"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -2808,7 +3018,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E44" s="9"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -2829,7 +3039,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E45" s="9"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -2850,7 +3060,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E46" s="9"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -2871,7 +3081,7 @@
         <v>2129167</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E47" s="9"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -2892,7 +3102,7 @@
         <v>960.8</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E48" s="9"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -2913,7 +3123,7 @@
         <v>2216.09</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E49" s="9"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -2934,7 +3144,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" s="10"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -2974,14 +3184,14 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
     <col min="7" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2992,7 +3202,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3015,7 +3225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E9" s="8">
         <v>100</v>
       </c>
@@ -3038,7 +3248,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E10" s="9"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -3059,7 +3269,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E11" s="9"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -3080,7 +3290,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E12" s="9"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -3101,7 +3311,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E13" s="9"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -3122,7 +3332,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E14" s="9"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -3143,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E15" s="9"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -3164,7 +3374,7 @@
         <v>43.13</v>
       </c>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E16" s="9"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -3185,7 +3395,7 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E17" s="9"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -3206,7 +3416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E18" s="9"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -3227,7 +3437,7 @@
         <v>83888</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E19" s="9"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -3248,7 +3458,7 @@
         <v>960.6</v>
       </c>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E20" s="9"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -3269,7 +3479,7 @@
         <v>87.33</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E21" s="9"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -3290,7 +3500,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E22" s="10"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -3311,7 +3521,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E23" s="8">
         <v>1000</v>
       </c>
@@ -3334,7 +3544,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E24" s="9"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -3355,7 +3565,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E25" s="9"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -3376,7 +3586,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E26" s="9"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -3397,7 +3607,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E27" s="9"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -3418,7 +3628,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E28" s="9"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -3439,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E29" s="9"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -3460,7 +3670,7 @@
         <v>142.69999999999999</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E30" s="9"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -3481,7 +3691,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E31" s="9"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -3502,7 +3712,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E32" s="9"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -3523,7 +3733,7 @@
         <v>838800</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E33" s="9"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -3544,7 +3754,7 @@
         <v>960.4</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E34" s="9"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -3565,7 +3775,7 @@
         <v>873.34</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E35" s="9"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -3586,7 +3796,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E36" s="10"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -3607,7 +3817,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E37" s="8">
         <v>4000</v>
       </c>
@@ -3630,7 +3840,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E38" s="9"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -3651,7 +3861,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E39" s="9"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -3672,7 +3882,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E40" s="9"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -3693,7 +3903,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E41" s="9"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -3714,7 +3924,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E42" s="9"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -3735,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E43" s="9"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -3756,7 +3966,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E44" s="9"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -3777,7 +3987,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E45" s="9"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -3798,7 +4008,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E46" s="9"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -3819,7 +4029,7 @@
         <v>1642210</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E47" s="9"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -3840,7 +4050,7 @@
         <v>960.6</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E48" s="9"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -3861,7 +4071,7 @@
         <v>1709.57</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E49" s="9"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -3882,7 +4092,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" s="10"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -3918,18 +4128,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33E3BDB-BD67-41A1-991C-2FB34B0212C5}">
   <dimension ref="E7:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
     <col min="7" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E7" s="5" t="s">
         <v>72</v>
       </c>
@@ -3940,7 +4150,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3963,7 +4173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E9" s="8">
         <v>100</v>
       </c>
@@ -3986,7 +4196,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E10" s="9"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -4007,7 +4217,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E11" s="9"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -4028,7 +4238,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E12" s="9"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -4049,7 +4259,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E13" s="9"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -4070,7 +4280,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E14" s="9"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -4091,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E15" s="9"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -4112,7 +4322,7 @@
         <v>42.53</v>
       </c>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E16" s="9"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -4133,7 +4343,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E17" s="9"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -4154,7 +4364,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E18" s="9"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -4175,7 +4385,7 @@
         <v>83889</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E19" s="9"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -4196,7 +4406,7 @@
         <v>960.5</v>
       </c>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E20" s="9"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -4217,7 +4427,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E21" s="9"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -4238,7 +4448,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E22" s="10"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -4259,7 +4469,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E23" s="8">
         <v>1000</v>
       </c>
@@ -4282,7 +4492,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E24" s="9"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -4303,7 +4513,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E25" s="9"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -4324,7 +4534,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E26" s="9"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -4345,7 +4555,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E27" s="9"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -4366,7 +4576,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E28" s="9"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -4387,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E29" s="9"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -4408,7 +4618,7 @@
         <v>42.03</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E30" s="9"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -4429,7 +4639,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E31" s="9"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -4450,7 +4660,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E32" s="9"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -4471,7 +4681,7 @@
         <v>838747</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E33" s="9"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -4492,7 +4702,7 @@
         <v>960.4</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E34" s="9"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -4513,7 +4723,7 @@
         <v>873.32</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E35" s="9"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -4534,7 +4744,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E36" s="10"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -4555,7 +4765,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E37" s="8">
         <v>4000</v>
       </c>
@@ -4578,7 +4788,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E38" s="9"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -4599,7 +4809,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E39" s="9"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -4620,7 +4830,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E40" s="9"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -4641,7 +4851,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E41" s="9"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -4662,7 +4872,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E42" s="9"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -4683,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E43" s="9"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -4704,7 +4914,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E44" s="9"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -4725,7 +4935,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E45" s="9"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -4746,7 +4956,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E46" s="9"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -4767,7 +4977,7 @@
         <v>1707670</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E47" s="9"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -4788,7 +4998,7 @@
         <v>960.5</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E48" s="9"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -4809,7 +5019,7 @@
         <v>1777.84</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E49" s="9"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -4830,7 +5040,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" s="10"/>
       <c r="F50" s="1" t="s">
         <v>9</v>

--- a/Wyniki 3/S2.xlsx
+++ b/Wyniki 3/S2.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28FB694-1F9C-4F9B-9683-CC44786AF69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E801E9C-2DBF-4662-B28A-FEBF6FDD24B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REST" sheetId="1" r:id="rId1"/>
     <sheet name="REST - jeden endpoint" sheetId="4" r:id="rId2"/>
     <sheet name="Graphql" sheetId="5" r:id="rId3"/>
     <sheet name="Graphql - wybrane dane" sheetId="6" r:id="rId4"/>
+    <sheet name="Graphql - wybrane dane (optyma)" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="343">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -524,12 +525,6 @@
     <t>163,4ms</t>
   </si>
   <si>
-    <t>2,1ms</t>
-  </si>
-  <si>
-    <t>2,44ms</t>
-  </si>
-  <si>
     <t>691MB</t>
   </si>
   <si>
@@ -563,12 +558,6 @@
     <t>798,44ms</t>
   </si>
   <si>
-    <t>685,55ms</t>
-  </si>
-  <si>
-    <t>696,54ms</t>
-  </si>
-  <si>
     <t>1,8GB</t>
   </si>
   <si>
@@ -581,12 +570,6 @@
     <t>956,93ms</t>
   </si>
   <si>
-    <t>695,86ms</t>
-  </si>
-  <si>
-    <t>704,24ms</t>
-  </si>
-  <si>
     <t>1,7GB</t>
   </si>
   <si>
@@ -599,12 +582,6 @@
     <t>784,47ms</t>
   </si>
   <si>
-    <t>694,87ms</t>
-  </si>
-  <si>
-    <t>705,63ms</t>
-  </si>
-  <si>
     <t>213MB</t>
   </si>
   <si>
@@ -614,22 +591,484 @@
     <t>1050ms</t>
   </si>
   <si>
-    <t>698,12ms</t>
-  </si>
-  <si>
-    <t>709,01ms</t>
-  </si>
-  <si>
     <t>578,86ms</t>
   </si>
   <si>
     <t>784,31ms</t>
   </si>
   <si>
-    <t>692,49ms</t>
-  </si>
-  <si>
     <t>702,28ms</t>
+  </si>
+  <si>
+    <t>1,57s</t>
+  </si>
+  <si>
+    <t>588,22ms</t>
+  </si>
+  <si>
+    <t>693,19ms</t>
+  </si>
+  <si>
+    <t>701,1ms</t>
+  </si>
+  <si>
+    <t>1,6GB</t>
+  </si>
+  <si>
+    <t>295MB</t>
+  </si>
+  <si>
+    <t>2,62ms</t>
+  </si>
+  <si>
+    <t>74,09ms</t>
+  </si>
+  <si>
+    <t>4,27ms</t>
+  </si>
+  <si>
+    <t>5,03ms</t>
+  </si>
+  <si>
+    <t>1,27ms</t>
+  </si>
+  <si>
+    <t>70,07ms</t>
+  </si>
+  <si>
+    <t>2,15ms</t>
+  </si>
+  <si>
+    <t>2,59ms</t>
+  </si>
+  <si>
+    <t>88MB</t>
+  </si>
+  <si>
+    <t>16MB</t>
+  </si>
+  <si>
+    <t>2,78ms</t>
+  </si>
+  <si>
+    <t>155,33ms</t>
+  </si>
+  <si>
+    <t>4,53ms</t>
+  </si>
+  <si>
+    <t>5,31ms</t>
+  </si>
+  <si>
+    <t>1,35ms</t>
+  </si>
+  <si>
+    <t>153,09ms</t>
+  </si>
+  <si>
+    <t>2,31ms</t>
+  </si>
+  <si>
+    <t>2,73ms</t>
+  </si>
+  <si>
+    <t>2,66ms</t>
+  </si>
+  <si>
+    <t>149,52ms</t>
+  </si>
+  <si>
+    <t>4,23ms</t>
+  </si>
+  <si>
+    <t>1,29ms</t>
+  </si>
+  <si>
+    <t>146,94ms</t>
+  </si>
+  <si>
+    <t>2,14ms</t>
+  </si>
+  <si>
+    <t>150ms</t>
+  </si>
+  <si>
+    <t>4,22ms</t>
+  </si>
+  <si>
+    <t>4,94ms</t>
+  </si>
+  <si>
+    <t>148,97ms</t>
+  </si>
+  <si>
+    <t>2,16ms</t>
+  </si>
+  <si>
+    <t>151,81ms</t>
+  </si>
+  <si>
+    <t>4,36ms</t>
+  </si>
+  <si>
+    <t>5,16ms</t>
+  </si>
+  <si>
+    <t>149,53ms</t>
+  </si>
+  <si>
+    <t>2,21ms</t>
+  </si>
+  <si>
+    <t>2,64ms</t>
+  </si>
+  <si>
+    <t>2,27ms</t>
+  </si>
+  <si>
+    <t>149,22ms</t>
+  </si>
+  <si>
+    <t>4,14ms</t>
+  </si>
+  <si>
+    <t>5,49ms</t>
+  </si>
+  <si>
+    <t>1,09ms</t>
+  </si>
+  <si>
+    <t>148,72ms</t>
+  </si>
+  <si>
+    <t>2,07ms</t>
+  </si>
+  <si>
+    <t>2,67ms</t>
+  </si>
+  <si>
+    <t>875MB</t>
+  </si>
+  <si>
+    <t>160MB</t>
+  </si>
+  <si>
+    <t>2,11ms</t>
+  </si>
+  <si>
+    <t>150,89ms</t>
+  </si>
+  <si>
+    <t>3,67ms</t>
+  </si>
+  <si>
+    <t>4,84ms</t>
+  </si>
+  <si>
+    <t>1,02ms</t>
+  </si>
+  <si>
+    <t>150,39ms</t>
+  </si>
+  <si>
+    <t>2,03ms</t>
+  </si>
+  <si>
+    <t>2,56ms</t>
+  </si>
+  <si>
+    <t>876MB</t>
+  </si>
+  <si>
+    <t>1,78ms</t>
+  </si>
+  <si>
+    <t>50,41ms</t>
+  </si>
+  <si>
+    <t>2,9ms</t>
+  </si>
+  <si>
+    <t>0,8546ms</t>
+  </si>
+  <si>
+    <t>49,1ms</t>
+  </si>
+  <si>
+    <t>1,54ms</t>
+  </si>
+  <si>
+    <t>1,87ms</t>
+  </si>
+  <si>
+    <t>1,68ms</t>
+  </si>
+  <si>
+    <t>160,82ms</t>
+  </si>
+  <si>
+    <t>2,61ms</t>
+  </si>
+  <si>
+    <t>3,14ms</t>
+  </si>
+  <si>
+    <t>0,80543ms</t>
+  </si>
+  <si>
+    <t>156,84ms</t>
+  </si>
+  <si>
+    <t>1,52ms</t>
+  </si>
+  <si>
+    <t>1,61ms</t>
+  </si>
+  <si>
+    <t>1,7ms</t>
+  </si>
+  <si>
+    <t>154,61ms</t>
+  </si>
+  <si>
+    <t>3,16ms</t>
+  </si>
+  <si>
+    <t>0,81454ms</t>
+  </si>
+  <si>
+    <t>152,35ms</t>
+  </si>
+  <si>
+    <t>1,63ms</t>
+  </si>
+  <si>
+    <t>1,74s</t>
+  </si>
+  <si>
+    <t>1,45s</t>
+  </si>
+  <si>
+    <t>616,63ms</t>
+  </si>
+  <si>
+    <t>897,29ms</t>
+  </si>
+  <si>
+    <t>728,89ms</t>
+  </si>
+  <si>
+    <t>736,14ms</t>
+  </si>
+  <si>
+    <t>288MB</t>
+  </si>
+  <si>
+    <t>1,58s</t>
+  </si>
+  <si>
+    <t>587,91ms</t>
+  </si>
+  <si>
+    <t>823,86ms</t>
+  </si>
+  <si>
+    <t>694,05ms</t>
+  </si>
+  <si>
+    <t>700,29ms</t>
+  </si>
+  <si>
+    <t>1,6s</t>
+  </si>
+  <si>
+    <t>591,95ms</t>
+  </si>
+  <si>
+    <t>850,72ms</t>
+  </si>
+  <si>
+    <t>697,03ms</t>
+  </si>
+  <si>
+    <t>294MB</t>
+  </si>
+  <si>
+    <t>1,19s</t>
+  </si>
+  <si>
+    <t>1,59s</t>
+  </si>
+  <si>
+    <t>596,91ms</t>
+  </si>
+  <si>
+    <t>840,31ms</t>
+  </si>
+  <si>
+    <t>703,77ms</t>
+  </si>
+  <si>
+    <t>709,5ms</t>
+  </si>
+  <si>
+    <t>293MB</t>
+  </si>
+  <si>
+    <t>2,06ms</t>
+  </si>
+  <si>
+    <t>147,78ms</t>
+  </si>
+  <si>
+    <t>3,37ms</t>
+  </si>
+  <si>
+    <t>4,04ms</t>
+  </si>
+  <si>
+    <t>42MB</t>
+  </si>
+  <si>
+    <t>2,05ms</t>
+  </si>
+  <si>
+    <t>155,07ms</t>
+  </si>
+  <si>
+    <t>3,29ms</t>
+  </si>
+  <si>
+    <t>3,92ms</t>
+  </si>
+  <si>
+    <t>2,02ms</t>
+  </si>
+  <si>
+    <t>142,21ms</t>
+  </si>
+  <si>
+    <t>3,3ms</t>
+  </si>
+  <si>
+    <t>3,94ms</t>
+  </si>
+  <si>
+    <t>159,34ms</t>
+  </si>
+  <si>
+    <t>3,35ms</t>
+  </si>
+  <si>
+    <t>146,86ms</t>
+  </si>
+  <si>
+    <t>3,25ms</t>
+  </si>
+  <si>
+    <t>3,79ms</t>
+  </si>
+  <si>
+    <t>157,52ms</t>
+  </si>
+  <si>
+    <t>3,13ms</t>
+  </si>
+  <si>
+    <t>4,28ms</t>
+  </si>
+  <si>
+    <t>503MB</t>
+  </si>
+  <si>
+    <t>416MB</t>
+  </si>
+  <si>
+    <t>1,89ms</t>
+  </si>
+  <si>
+    <t>67,95ms</t>
+  </si>
+  <si>
+    <t>3,6ms</t>
+  </si>
+  <si>
+    <t>4,7ms</t>
+  </si>
+  <si>
+    <t>1,73ms</t>
+  </si>
+  <si>
+    <t>65,56ms</t>
+  </si>
+  <si>
+    <t>1,23ms</t>
+  </si>
+  <si>
+    <t>161,49ms</t>
+  </si>
+  <si>
+    <t>2,58ms</t>
+  </si>
+  <si>
+    <t>504MB</t>
+  </si>
+  <si>
+    <t>1,79ms</t>
+  </si>
+  <si>
+    <t>164,62ms</t>
+  </si>
+  <si>
+    <t>3,44ms</t>
+  </si>
+  <si>
+    <t>4,62ms</t>
+  </si>
+  <si>
+    <t>813,21ms</t>
+  </si>
+  <si>
+    <t>1,27s</t>
+  </si>
+  <si>
+    <t>1,1GB</t>
+  </si>
+  <si>
+    <t>920MB</t>
+  </si>
+  <si>
+    <t>798,81ms</t>
+  </si>
+  <si>
+    <t>1,12s</t>
+  </si>
+  <si>
+    <t>927MB</t>
+  </si>
+  <si>
+    <t>815,13ms</t>
+  </si>
+  <si>
+    <t>919MB</t>
+  </si>
+  <si>
+    <t>800,39ms</t>
+  </si>
+  <si>
+    <t>1,07s</t>
+  </si>
+  <si>
+    <t>926MB</t>
+  </si>
+  <si>
+    <t>807,29ms</t>
+  </si>
+  <si>
+    <t>1,2s</t>
+  </si>
+  <si>
+    <t>923MB</t>
   </si>
 </sst>
 </file>
@@ -807,6 +1246,153 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>438892</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>134512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0D2BE0-2BA7-EA9E-D6C9-C518D9A63228}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11077575" y="1143000"/>
+          <a:ext cx="5315692" cy="8326012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>530894</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>35647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BDFF74-3C5F-335A-A278-CBC0B0A50C0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11410950" y="1143000"/>
+          <a:ext cx="4791744" cy="5172797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>473906</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>35647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D0E2BFD-D004-CB9B-F8A6-C03C3991A8B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11410950" y="1143000"/>
+          <a:ext cx="5953956" cy="5172797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1074,15 +1660,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E7:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44:L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
     <col min="6" max="6" width="32.5703125" customWidth="1"/>
-    <col min="7" max="11" width="9" customWidth="1"/>
+    <col min="7" max="11" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="5:18" x14ac:dyDescent="0.25">
@@ -1126,11 +1713,21 @@
       <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="N9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1152,11 +1749,21 @@
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="N10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1178,11 +1785,21 @@
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="N11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1204,11 +1821,21 @@
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="N12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1230,11 +1857,21 @@
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="N13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1256,11 +1893,21 @@
       <c r="F14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
       <c r="N14" s="1">
         <v>0</v>
       </c>
@@ -1282,11 +1929,21 @@
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="N15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1308,11 +1965,21 @@
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="N16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1334,11 +2001,21 @@
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="N17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1360,11 +2037,21 @@
       <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="G18" s="1">
+        <v>167722</v>
+      </c>
+      <c r="H18" s="1">
+        <v>167688</v>
+      </c>
+      <c r="I18" s="1">
+        <v>167724</v>
+      </c>
+      <c r="J18" s="1">
+        <v>167708</v>
+      </c>
+      <c r="K18" s="1">
+        <v>167726</v>
+      </c>
       <c r="N18" s="1">
         <v>167502</v>
       </c>
@@ -1386,11 +2073,21 @@
       <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="G19" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="H19" s="1">
+        <v>960.2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>960</v>
+      </c>
+      <c r="J19" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="K19" s="1">
+        <v>960.8</v>
+      </c>
       <c r="N19" s="1">
         <v>960.2</v>
       </c>
@@ -1412,11 +2109,21 @@
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="G20" s="1">
+        <v>174.58</v>
+      </c>
+      <c r="H20" s="1">
+        <v>174.65</v>
+      </c>
+      <c r="I20" s="1">
+        <v>174.71</v>
+      </c>
+      <c r="J20" s="1">
+        <v>174.53</v>
+      </c>
+      <c r="K20" s="1">
+        <v>174.57</v>
+      </c>
       <c r="N20" s="1">
         <v>174.44</v>
       </c>
@@ -1438,11 +2145,21 @@
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="N21" s="1">
         <v>15</v>
       </c>
@@ -1464,11 +2181,21 @@
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="N22" s="1">
         <v>17</v>
       </c>
@@ -1492,11 +2219,21 @@
       <c r="F23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="N23" s="2" t="s">
         <v>49</v>
       </c>
@@ -1518,11 +2255,21 @@
       <c r="F24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="N24" s="2" t="s">
         <v>50</v>
       </c>
@@ -1544,11 +2291,21 @@
       <c r="F25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="N25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1570,11 +2327,21 @@
       <c r="F26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="N26" s="2" t="s">
         <v>52</v>
       </c>
@@ -1596,11 +2363,21 @@
       <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="N27" s="2" t="s">
         <v>53</v>
       </c>
@@ -1622,11 +2399,21 @@
       <c r="F28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
       <c r="N28" s="2">
         <v>0</v>
       </c>
@@ -1648,11 +2435,21 @@
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="N29" s="2" t="s">
         <v>54</v>
       </c>
@@ -1674,11 +2471,21 @@
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="N30" s="2" t="s">
         <v>54</v>
       </c>
@@ -1700,11 +2507,21 @@
       <c r="F31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="N31" s="2" t="s">
         <v>55</v>
       </c>
@@ -1726,11 +2543,21 @@
       <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="G32" s="2">
+        <v>1676904</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1677110</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1677714</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1677780</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1677774</v>
+      </c>
       <c r="N32" s="2">
         <v>508888</v>
       </c>
@@ -1752,11 +2579,21 @@
       <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="G33" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="H33" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="I33" s="2">
+        <v>961</v>
+      </c>
+      <c r="J33" s="2">
+        <v>960.9</v>
+      </c>
+      <c r="K33" s="2">
+        <v>961</v>
+      </c>
       <c r="N33" s="2">
         <v>960.6</v>
       </c>
@@ -1778,11 +2615,21 @@
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="G34" s="2">
+        <v>1745.46</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1745.86</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1745.81</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1746.05</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1745.95</v>
+      </c>
       <c r="N34" s="2">
         <v>529.77</v>
       </c>
@@ -1804,11 +2651,21 @@
       <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="N35" s="2" t="s">
         <v>56</v>
       </c>
@@ -1830,11 +2687,21 @@
       <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="N36" s="2" t="s">
         <v>57</v>
       </c>
@@ -1858,11 +2725,21 @@
       <c r="F37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="N37" s="1" t="s">
         <v>119</v>
       </c>
@@ -1884,11 +2761,21 @@
       <c r="F38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="N38" s="1" t="s">
         <v>120</v>
       </c>
@@ -1910,11 +2797,21 @@
       <c r="F39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="N39" s="1" t="s">
         <v>121</v>
       </c>
@@ -1936,11 +2833,21 @@
       <c r="F40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="N40" s="1" t="s">
         <v>122</v>
       </c>
@@ -1962,11 +2869,21 @@
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="N41" s="1" t="s">
         <v>123</v>
       </c>
@@ -1988,11 +2905,21 @@
       <c r="F42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
       <c r="N42" s="1">
         <v>0</v>
       </c>
@@ -2014,11 +2941,21 @@
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="N43" s="1" t="s">
         <v>124</v>
       </c>
@@ -2040,11 +2977,21 @@
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="N44" s="1" t="s">
         <v>125</v>
       </c>
@@ -2066,11 +3013,21 @@
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="N45" s="1" t="s">
         <v>126</v>
       </c>
@@ -2092,11 +3049,21 @@
       <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="G46" s="1">
+        <v>3089760</v>
+      </c>
+      <c r="H46" s="1">
+        <v>3011116</v>
+      </c>
+      <c r="I46" s="1">
+        <v>3090560</v>
+      </c>
+      <c r="J46" s="1">
+        <v>3079152</v>
+      </c>
+      <c r="K46" s="1">
+        <v>3065210</v>
+      </c>
       <c r="N46" s="1">
         <v>518326</v>
       </c>
@@ -2118,11 +3085,21 @@
       <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
+      <c r="G47" s="1">
+        <v>961.8</v>
+      </c>
+      <c r="H47" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="I47" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="J47" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="K47" s="1">
+        <v>960.7</v>
+      </c>
       <c r="N47" s="1">
         <v>960.7</v>
       </c>
@@ -2144,11 +3121,21 @@
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+      <c r="G48" s="1">
+        <v>3212.34</v>
+      </c>
+      <c r="H48" s="1">
+        <v>3133.65</v>
+      </c>
+      <c r="I48" s="1">
+        <v>3217.39</v>
+      </c>
+      <c r="J48" s="1">
+        <v>3204.52</v>
+      </c>
+      <c r="K48" s="1">
+        <v>3190.72</v>
+      </c>
       <c r="N48" s="1">
         <v>539.52</v>
       </c>
@@ -2170,11 +3157,21 @@
       <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="N49" s="1" t="s">
         <v>127</v>
       </c>
@@ -2196,11 +3193,21 @@
       <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="N50" s="1" t="s">
         <v>128</v>
       </c>
@@ -2233,7 +3240,7 @@
   <dimension ref="E7:K50"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+      <selection activeCell="L16" sqref="L16:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2668,16 +3675,16 @@
         <v>159</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.25">
@@ -2713,13 +3720,13 @@
         <v>146.59</v>
       </c>
       <c r="I29" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="K29" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="30" spans="5:11" x14ac:dyDescent="0.25">
@@ -2727,8 +3734,8 @@
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>161</v>
+      <c r="G30" s="2">
+        <v>2.1</v>
       </c>
       <c r="H30" s="2">
         <v>2.0699999999999998</v>
@@ -2748,8 +3755,8 @@
       <c r="F31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>162</v>
+      <c r="G31" s="2">
+        <v>2.44</v>
       </c>
       <c r="H31" s="2">
         <v>2.33</v>
@@ -2833,19 +3840,19 @@
         <v>11</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="5:11" x14ac:dyDescent="0.25">
@@ -2854,19 +3861,19 @@
         <v>9</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="5:11" x14ac:dyDescent="0.25">
@@ -2961,19 +3968,19 @@
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H41" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="J41" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="5:11" x14ac:dyDescent="0.25">
@@ -3003,19 +4010,19 @@
         <v>3</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H43" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="J43" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="5:11" x14ac:dyDescent="0.25">
@@ -3023,20 +4030,20 @@
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>195</v>
+      <c r="G44" s="1">
+        <v>685.55</v>
+      </c>
+      <c r="H44" s="1">
+        <v>695.86</v>
+      </c>
+      <c r="I44" s="1">
+        <v>694.87</v>
+      </c>
+      <c r="J44" s="3">
+        <v>698.12</v>
+      </c>
+      <c r="K44" s="3">
+        <v>692.49</v>
       </c>
     </row>
     <row r="45" spans="5:11" x14ac:dyDescent="0.25">
@@ -3044,20 +4051,20 @@
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>196</v>
+      <c r="G45" s="1">
+        <v>696.54</v>
+      </c>
+      <c r="H45" s="1">
+        <v>704.24</v>
+      </c>
+      <c r="I45" s="1">
+        <v>705.63</v>
+      </c>
+      <c r="J45" s="3">
+        <v>709.01</v>
+      </c>
+      <c r="K45" s="3">
+        <v>702.28</v>
       </c>
     </row>
     <row r="46" spans="5:11" x14ac:dyDescent="0.25">
@@ -3129,19 +4136,19 @@
         <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="I49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J49" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="K49" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="5:11" x14ac:dyDescent="0.25">
@@ -3150,19 +4157,19 @@
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="I50" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3180,8 +4187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FCC0AA-C984-4903-81D8-D871D2663DA5}">
   <dimension ref="E7:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3189,6 +4196,7 @@
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
     <col min="6" max="6" width="32.5703125" customWidth="1"/>
     <col min="7" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="5:11" x14ac:dyDescent="0.25">
@@ -3612,8 +4620,8 @@
       <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>114</v>
+      <c r="G27" s="2">
+        <v>1.72</v>
       </c>
       <c r="H27" s="2">
         <v>1.73</v>
@@ -4121,6 +5129,7 @@
     <mergeCell ref="E37:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4129,7 +5138,7 @@
   <dimension ref="E7:K50"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5069,5 +6078,999 @@
     <mergeCell ref="E37:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1C407F-A9FB-4106-8CC9-34E1EF3B9F3E}">
+  <dimension ref="E7:L50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="11" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E9" s="8">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E10" s="9"/>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="9"/>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="9"/>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="9"/>
+      <c r="F13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="9"/>
+      <c r="F14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E16" s="9"/>
+      <c r="F16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="9"/>
+      <c r="F17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1">
+        <v>83900</v>
+      </c>
+      <c r="H18" s="1">
+        <v>83903</v>
+      </c>
+      <c r="I18" s="1">
+        <v>83910</v>
+      </c>
+      <c r="J18" s="1">
+        <v>83898</v>
+      </c>
+      <c r="K18" s="1">
+        <v>83901</v>
+      </c>
+      <c r="L18">
+        <f>AVERAGE(G18:K18)</f>
+        <v>83902.399999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
+      <c r="F19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>960.4</v>
+      </c>
+      <c r="I19" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="J19" s="1">
+        <v>960.3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>960.4</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19:L20" si="0">AVERAGE(G19:K19)</f>
+        <v>960.41999999999985</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="9"/>
+      <c r="F20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="1">
+        <v>87.35</v>
+      </c>
+      <c r="H20" s="1">
+        <v>87.36</v>
+      </c>
+      <c r="I20" s="1">
+        <v>87.36</v>
+      </c>
+      <c r="J20" s="1">
+        <v>87.37</v>
+      </c>
+      <c r="K20" s="1">
+        <v>87.36</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>87.36</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="9"/>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E22" s="10"/>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E24" s="9"/>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E25" s="9"/>
+      <c r="F25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E26" s="9"/>
+      <c r="F26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E27" s="9"/>
+      <c r="F27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E28" s="9"/>
+      <c r="F28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E29" s="9"/>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E30" s="9"/>
+      <c r="F30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E31" s="9"/>
+      <c r="F31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E32" s="9"/>
+      <c r="F32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2">
+        <v>838869</v>
+      </c>
+      <c r="H32" s="2">
+        <v>838743</v>
+      </c>
+      <c r="I32" s="2">
+        <v>838738</v>
+      </c>
+      <c r="J32" s="2">
+        <v>839184</v>
+      </c>
+      <c r="K32" s="2">
+        <v>838744</v>
+      </c>
+      <c r="L32">
+        <f>AVERAGE(G32:K32)</f>
+        <v>838855.6</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E33" s="9"/>
+      <c r="F33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="2">
+        <v>961</v>
+      </c>
+      <c r="H33" s="2">
+        <v>961</v>
+      </c>
+      <c r="I33" s="2">
+        <v>960.9</v>
+      </c>
+      <c r="J33" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="K33" s="2">
+        <v>960.3</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ref="L33:L34" si="1">AVERAGE(G33:K33)</f>
+        <v>960.78000000000009</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E34" s="9"/>
+      <c r="F34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="2">
+        <v>872.93</v>
+      </c>
+      <c r="H34" s="2">
+        <v>872.8</v>
+      </c>
+      <c r="I34" s="2">
+        <v>872.87</v>
+      </c>
+      <c r="J34" s="2">
+        <v>873.5</v>
+      </c>
+      <c r="K34" s="2">
+        <v>873.4</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>873.1</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E35" s="9"/>
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E36" s="10"/>
+      <c r="F36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E37" s="8">
+        <v>4000</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E38" s="9"/>
+      <c r="F38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E39" s="9"/>
+      <c r="F39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E40" s="9"/>
+      <c r="F40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E41" s="9"/>
+      <c r="F41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E42" s="9"/>
+      <c r="F42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E43" s="9"/>
+      <c r="F43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E44" s="9"/>
+      <c r="F44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="1">
+        <v>965.1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>950.06</v>
+      </c>
+      <c r="I44" s="1">
+        <v>968.17</v>
+      </c>
+      <c r="J44" s="1">
+        <v>950.04</v>
+      </c>
+      <c r="K44" s="1">
+        <v>961.01</v>
+      </c>
+      <c r="L44">
+        <f>AVERAGE(G44:K44)</f>
+        <v>958.87599999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E45" s="9"/>
+      <c r="F45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1">
+        <v>976.38</v>
+      </c>
+      <c r="H45" s="1">
+        <v>960.97</v>
+      </c>
+      <c r="I45" s="1">
+        <v>980.09</v>
+      </c>
+      <c r="J45" s="1">
+        <v>959.6</v>
+      </c>
+      <c r="K45" s="1">
+        <v>974.55</v>
+      </c>
+      <c r="L45">
+        <f t="shared" ref="L45:L48" si="2">AVERAGE(G45:K45)</f>
+        <v>970.31799999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E46" s="9"/>
+      <c r="F46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1854132</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1868928</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1852168</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1867314</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1860170</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="2"/>
+        <v>1860542.4</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E47" s="9"/>
+      <c r="F47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="H47" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="I47" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="J47" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="K47" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="2"/>
+        <v>960.72</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E48" s="9"/>
+      <c r="F48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1930.19</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1945.53</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1927.72</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1943.35</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1936.19</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="2"/>
+        <v>1936.5960000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E49" s="9"/>
+      <c r="F49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E50" s="10"/>
+      <c r="F50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="E9:E22"/>
+    <mergeCell ref="E23:E36"/>
+    <mergeCell ref="E37:E50"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Wyniki 3/S2.xlsx
+++ b/Wyniki 3/S2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E801E9C-2DBF-4662-B28A-FEBF6FDD24B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC57E55C-7A8D-484B-A409-6D4A8F76E003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REST" sheetId="1" r:id="rId1"/>
@@ -1660,19 +1660,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E7:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44:L49"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
-    <col min="7" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="7" max="11" width="9.81640625" customWidth="1"/>
+    <col min="12" max="12" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E9" s="8">
         <v>100</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E10" s="9"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -1780,7 +1780,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E11" s="9"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -1816,7 +1816,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E12" s="9"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -1852,7 +1852,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E13" s="9"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -1888,7 +1888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E14" s="9"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E15" s="9"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -1960,7 +1960,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E16" s="9"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -1996,7 +1996,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E17" s="9"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -2032,7 +2032,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E18" s="9"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -2068,7 +2068,7 @@
         <v>167494</v>
       </c>
     </row>
-    <row r="19" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E19" s="9"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -2104,7 +2104,7 @@
         <v>960.3</v>
       </c>
     </row>
-    <row r="20" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E20" s="9"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -2140,7 +2140,7 @@
         <v>174.41</v>
       </c>
     </row>
-    <row r="21" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E21" s="9"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -2176,7 +2176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E22" s="10"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -2212,7 +2212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E23" s="8">
         <v>1000</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E24" s="9"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -2286,7 +2286,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E25" s="9"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -2322,7 +2322,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E26" s="9"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -2358,7 +2358,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E27" s="9"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -2394,7 +2394,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E28" s="9"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E29" s="9"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -2466,7 +2466,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E30" s="9"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -2502,7 +2502,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E31" s="9"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -2538,7 +2538,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E32" s="9"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -2574,7 +2574,7 @@
         <v>510544</v>
       </c>
     </row>
-    <row r="33" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E33" s="9"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -2610,7 +2610,7 @@
         <v>960.4</v>
       </c>
     </row>
-    <row r="34" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E34" s="9"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -2646,7 +2646,7 @@
         <v>531.59</v>
       </c>
     </row>
-    <row r="35" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E35" s="9"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -2682,7 +2682,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E36" s="10"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -2718,7 +2718,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E37" s="8">
         <v>4000</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E38" s="9"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -2792,7 +2792,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E39" s="9"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -2828,7 +2828,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E40" s="9"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -2864,7 +2864,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E41" s="9"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -2900,7 +2900,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E42" s="9"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E43" s="9"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -2972,7 +2972,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E44" s="9"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -3008,7 +3008,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E45" s="9"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -3044,7 +3044,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E46" s="9"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -3080,7 +3080,7 @@
         <v>521958</v>
       </c>
     </row>
-    <row r="47" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E47" s="9"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -3116,7 +3116,7 @@
         <v>960.8</v>
       </c>
     </row>
-    <row r="48" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E48" s="9"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -3152,7 +3152,7 @@
         <v>543.26</v>
       </c>
     </row>
-    <row r="49" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E49" s="9"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -3188,7 +3188,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E50" s="10"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -3243,14 +3243,14 @@
       <selection activeCell="L16" sqref="L16:L50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.54296875" customWidth="1"/>
     <col min="7" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E7" s="5" t="s">
         <v>158</v>
       </c>
@@ -3261,7 +3261,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E9" s="8">
         <v>100</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E10" s="9"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -3328,7 +3328,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E11" s="9"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -3349,7 +3349,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E12" s="9"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -3370,7 +3370,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E13" s="9"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -3391,7 +3391,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E14" s="9"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E15" s="9"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -3433,7 +3433,7 @@
         <v>42.68</v>
       </c>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E16" s="9"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -3454,7 +3454,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E17" s="9"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -3475,7 +3475,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E18" s="9"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -3496,7 +3496,7 @@
         <v>83926</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E19" s="9"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -3517,7 +3517,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E20" s="9"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -3538,7 +3538,7 @@
         <v>87.42</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E21" s="9"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -3559,7 +3559,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E22" s="10"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -3580,7 +3580,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E23" s="8">
         <v>1000</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E24" s="9"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -3624,7 +3624,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E25" s="9"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -3645,7 +3645,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E26" s="9"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -3666,7 +3666,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E27" s="9"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -3687,7 +3687,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E28" s="9"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E29" s="9"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -3729,7 +3729,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E30" s="9"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -3750,7 +3750,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E31" s="9"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -3771,7 +3771,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E32" s="9"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -3792,7 +3792,7 @@
         <v>839084</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E33" s="9"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -3813,7 +3813,7 @@
         <v>960.7</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E34" s="9"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -3834,7 +3834,7 @@
         <v>873.39</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E35" s="9"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -3855,7 +3855,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E36" s="10"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -3876,7 +3876,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E37" s="8">
         <v>4000</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E38" s="9"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -3920,7 +3920,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E39" s="9"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -3941,7 +3941,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E40" s="9"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -3962,7 +3962,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E41" s="9"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -3983,7 +3983,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E42" s="9"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E43" s="9"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -4025,7 +4025,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E44" s="9"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -4046,7 +4046,7 @@
         <v>692.49</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E45" s="9"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -4067,7 +4067,7 @@
         <v>702.28</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E46" s="9"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -4088,7 +4088,7 @@
         <v>2129167</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E47" s="9"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -4109,7 +4109,7 @@
         <v>960.8</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E48" s="9"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -4130,7 +4130,7 @@
         <v>2216.09</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E49" s="9"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -4151,7 +4151,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E50" s="10"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -4187,19 +4187,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FCC0AA-C984-4903-81D8-D871D2663DA5}">
   <dimension ref="E7:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.54296875" customWidth="1"/>
     <col min="7" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
@@ -4210,7 +4210,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E9" s="8">
         <v>100</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E10" s="9"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -4277,7 +4277,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E11" s="9"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -4298,7 +4298,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E12" s="9"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -4319,7 +4319,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E13" s="9"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -4340,7 +4340,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E14" s="9"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -4361,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E15" s="9"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -4382,7 +4382,7 @@
         <v>43.13</v>
       </c>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E16" s="9"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -4403,7 +4403,7 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E17" s="9"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -4424,7 +4424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E18" s="9"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -4445,7 +4445,7 @@
         <v>83888</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E19" s="9"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -4466,7 +4466,7 @@
         <v>960.6</v>
       </c>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E20" s="9"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -4487,7 +4487,7 @@
         <v>87.33</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E21" s="9"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -4508,7 +4508,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E22" s="10"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -4529,7 +4529,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E23" s="8">
         <v>1000</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E24" s="9"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -4573,7 +4573,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E25" s="9"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -4594,7 +4594,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E26" s="9"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -4615,7 +4615,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E27" s="9"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -4636,7 +4636,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E28" s="9"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E29" s="9"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -4678,7 +4678,7 @@
         <v>142.69999999999999</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E30" s="9"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -4699,7 +4699,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E31" s="9"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -4720,7 +4720,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E32" s="9"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -4741,7 +4741,7 @@
         <v>838800</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E33" s="9"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -4762,7 +4762,7 @@
         <v>960.4</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E34" s="9"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -4783,7 +4783,7 @@
         <v>873.34</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E35" s="9"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -4804,7 +4804,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E36" s="10"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -4825,7 +4825,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E37" s="8">
         <v>4000</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E38" s="9"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -4869,7 +4869,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E39" s="9"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -4890,7 +4890,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E40" s="9"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -4911,7 +4911,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E41" s="9"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -4932,7 +4932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E42" s="9"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E43" s="9"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -4974,7 +4974,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E44" s="9"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -4995,7 +4995,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E45" s="9"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -5016,7 +5016,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E46" s="9"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -5037,7 +5037,7 @@
         <v>1642210</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E47" s="9"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -5058,7 +5058,7 @@
         <v>960.6</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E48" s="9"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -5079,7 +5079,7 @@
         <v>1709.57</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E49" s="9"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -5100,7 +5100,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E50" s="10"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -5137,18 +5137,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33E3BDB-BD67-41A1-991C-2FB34B0212C5}">
   <dimension ref="E7:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.54296875" customWidth="1"/>
     <col min="7" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E7" s="5" t="s">
         <v>72</v>
       </c>
@@ -5159,7 +5159,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E9" s="8">
         <v>100</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E10" s="9"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -5226,7 +5226,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E11" s="9"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -5247,7 +5247,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E12" s="9"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -5268,7 +5268,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E13" s="9"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -5289,7 +5289,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E14" s="9"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E15" s="9"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -5331,7 +5331,7 @@
         <v>42.53</v>
       </c>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E16" s="9"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -5352,7 +5352,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E17" s="9"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -5373,7 +5373,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E18" s="9"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -5394,7 +5394,7 @@
         <v>83889</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E19" s="9"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -5415,7 +5415,7 @@
         <v>960.5</v>
       </c>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E20" s="9"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -5436,7 +5436,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E21" s="9"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -5457,7 +5457,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E22" s="10"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -5478,7 +5478,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E23" s="8">
         <v>1000</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E24" s="9"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -5522,7 +5522,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E25" s="9"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -5543,7 +5543,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E26" s="9"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -5564,7 +5564,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E27" s="9"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -5585,7 +5585,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E28" s="9"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E29" s="9"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -5627,7 +5627,7 @@
         <v>42.03</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E30" s="9"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -5648,7 +5648,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E31" s="9"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -5669,7 +5669,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E32" s="9"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -5690,7 +5690,7 @@
         <v>838747</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E33" s="9"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -5711,7 +5711,7 @@
         <v>960.4</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E34" s="9"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -5732,7 +5732,7 @@
         <v>873.32</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E35" s="9"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -5753,7 +5753,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E36" s="10"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -5774,7 +5774,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E37" s="8">
         <v>4000</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E38" s="9"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -5818,7 +5818,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E39" s="9"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -5839,7 +5839,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E40" s="9"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -5860,7 +5860,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E41" s="9"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -5881,7 +5881,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E42" s="9"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E43" s="9"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -5923,7 +5923,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E44" s="9"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -5944,7 +5944,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E45" s="9"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -5965,7 +5965,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E46" s="9"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -5986,7 +5986,7 @@
         <v>1707670</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E47" s="9"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -6007,7 +6007,7 @@
         <v>960.5</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E48" s="9"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -6028,7 +6028,7 @@
         <v>1777.84</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E49" s="9"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -6049,7 +6049,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E50" s="10"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -6086,18 +6086,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1C407F-A9FB-4106-8CC9-34E1EF3B9F3E}">
   <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.54296875" customWidth="1"/>
     <col min="7" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E7" s="5" t="s">
         <v>72</v>
       </c>
@@ -6108,7 +6108,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E9" s="8">
         <v>100</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E10" s="9"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -6175,7 +6175,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E11" s="9"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -6196,7 +6196,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E12" s="9"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -6217,7 +6217,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E13" s="9"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -6238,7 +6238,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E14" s="9"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E15" s="9"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -6280,7 +6280,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E16" s="9"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -6301,7 +6301,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E17" s="9"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -6322,7 +6322,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E18" s="9"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -6347,7 +6347,7 @@
         <v>83902.399999999994</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E19" s="9"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -6372,7 +6372,7 @@
         <v>960.41999999999985</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E20" s="9"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -6397,7 +6397,7 @@
         <v>87.36</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E21" s="9"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -6418,7 +6418,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E22" s="10"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -6439,7 +6439,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E23" s="8">
         <v>1000</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E24" s="9"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -6483,7 +6483,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E25" s="9"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -6504,7 +6504,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E26" s="9"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -6525,7 +6525,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E27" s="9"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -6546,7 +6546,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E28" s="9"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -6567,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E29" s="9"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -6588,7 +6588,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E30" s="9"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -6609,7 +6609,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E31" s="9"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -6630,7 +6630,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E32" s="9"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -6655,7 +6655,7 @@
         <v>838855.6</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E33" s="9"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -6680,7 +6680,7 @@
         <v>960.78000000000009</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E34" s="9"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -6705,7 +6705,7 @@
         <v>873.1</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E35" s="9"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -6726,7 +6726,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E36" s="10"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -6747,7 +6747,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E37" s="8">
         <v>4000</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E38" s="9"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -6791,7 +6791,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E39" s="9"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -6812,7 +6812,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E40" s="9"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -6833,7 +6833,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E41" s="9"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -6854,7 +6854,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E42" s="9"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E43" s="9"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -6896,7 +6896,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E44" s="9"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -6921,7 +6921,7 @@
         <v>958.87599999999998</v>
       </c>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E45" s="9"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -6946,7 +6946,7 @@
         <v>970.31799999999998</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E46" s="9"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -6971,7 +6971,7 @@
         <v>1860542.4</v>
       </c>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E47" s="9"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -6996,7 +6996,7 @@
         <v>960.72</v>
       </c>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E48" s="9"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -7021,7 +7021,7 @@
         <v>1936.5960000000002</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E49" s="9"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -7042,7 +7042,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E50" s="10"/>
       <c r="F50" s="1" t="s">
         <v>9</v>

--- a/Wyniki 3/S2.xlsx
+++ b/Wyniki 3/S2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC57E55C-7A8D-484B-A409-6D4A8F76E003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA485C9-E7A6-4F3F-97F7-15FA1F85106B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REST" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Graphql" sheetId="5" r:id="rId3"/>
     <sheet name="Graphql - wybrane dane" sheetId="6" r:id="rId4"/>
     <sheet name="Graphql - wybrane dane (optyma)" sheetId="8" r:id="rId5"/>
+    <sheet name="Graphql resolved" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="347">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -1069,6 +1070,18 @@
   </si>
   <si>
     <t>923MB</t>
+  </si>
+  <si>
+    <t>72MB</t>
+  </si>
+  <si>
+    <t>59MB</t>
+  </si>
+  <si>
+    <t>721MB</t>
+  </si>
+  <si>
+    <t>591MB</t>
   </si>
 </sst>
 </file>
@@ -1395,6 +1408,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>473906</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>35647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E133AAD-E454-4A9E-AFAB-E39F3EC77696}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11410950" y="1143000"/>
+          <a:ext cx="5960306" cy="5179147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1664,15 +1726,15 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
-    <col min="7" max="11" width="9.81640625" customWidth="1"/>
-    <col min="12" max="12" width="18.7265625" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="11" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1683,7 +1745,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1706,7 +1768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E9" s="8">
         <v>100</v>
       </c>
@@ -1744,7 +1806,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E10" s="9"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -1780,7 +1842,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E11" s="9"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -1816,7 +1878,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E12" s="9"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -1852,7 +1914,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E13" s="9"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -1888,7 +1950,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E14" s="9"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -1924,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E15" s="9"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -1960,7 +2022,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E16" s="9"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -1996,7 +2058,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E17" s="9"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -2032,7 +2094,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E18" s="9"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -2068,7 +2130,7 @@
         <v>167494</v>
       </c>
     </row>
-    <row r="19" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E19" s="9"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -2104,7 +2166,7 @@
         <v>960.3</v>
       </c>
     </row>
-    <row r="20" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E20" s="9"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -2140,7 +2202,7 @@
         <v>174.41</v>
       </c>
     </row>
-    <row r="21" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E21" s="9"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -2176,7 +2238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E22" s="10"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -2212,7 +2274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E23" s="8">
         <v>1000</v>
       </c>
@@ -2250,7 +2312,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E24" s="9"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -2286,7 +2348,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E25" s="9"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -2322,7 +2384,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E26" s="9"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -2358,7 +2420,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E27" s="9"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -2394,7 +2456,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E28" s="9"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -2430,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E29" s="9"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -2466,7 +2528,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E30" s="9"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -2502,7 +2564,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E31" s="9"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -2538,7 +2600,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E32" s="9"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -2574,7 +2636,7 @@
         <v>510544</v>
       </c>
     </row>
-    <row r="33" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E33" s="9"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -2610,7 +2672,7 @@
         <v>960.4</v>
       </c>
     </row>
-    <row r="34" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E34" s="9"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -2646,7 +2708,7 @@
         <v>531.59</v>
       </c>
     </row>
-    <row r="35" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E35" s="9"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -2682,7 +2744,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E36" s="10"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -2718,7 +2780,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E37" s="8">
         <v>4000</v>
       </c>
@@ -2756,7 +2818,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E38" s="9"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -2792,7 +2854,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E39" s="9"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -2828,7 +2890,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E40" s="9"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -2864,7 +2926,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E41" s="9"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -2900,7 +2962,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E42" s="9"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -2936,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E43" s="9"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -2972,7 +3034,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E44" s="9"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -3008,7 +3070,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E45" s="9"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -3044,7 +3106,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E46" s="9"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -3080,7 +3142,7 @@
         <v>521958</v>
       </c>
     </row>
-    <row r="47" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E47" s="9"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -3116,7 +3178,7 @@
         <v>960.8</v>
       </c>
     </row>
-    <row r="48" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E48" s="9"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -3152,7 +3214,7 @@
         <v>543.26</v>
       </c>
     </row>
-    <row r="49" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E49" s="9"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -3188,7 +3250,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="5:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E50" s="10"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -3243,14 +3305,14 @@
       <selection activeCell="L16" sqref="L16:L50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
     <col min="7" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E7" s="5" t="s">
         <v>158</v>
       </c>
@@ -3261,7 +3323,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3284,7 +3346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E9" s="8">
         <v>100</v>
       </c>
@@ -3307,7 +3369,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E10" s="9"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -3328,7 +3390,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E11" s="9"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -3349,7 +3411,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E12" s="9"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -3370,7 +3432,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E13" s="9"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -3391,7 +3453,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E14" s="9"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -3412,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E15" s="9"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -3433,7 +3495,7 @@
         <v>42.68</v>
       </c>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E16" s="9"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -3454,7 +3516,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E17" s="9"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -3475,7 +3537,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E18" s="9"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -3496,7 +3558,7 @@
         <v>83926</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E19" s="9"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -3517,7 +3579,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E20" s="9"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -3538,7 +3600,7 @@
         <v>87.42</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E21" s="9"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -3559,7 +3621,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E22" s="10"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -3580,7 +3642,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E23" s="8">
         <v>1000</v>
       </c>
@@ -3603,7 +3665,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E24" s="9"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -3624,7 +3686,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E25" s="9"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -3645,7 +3707,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E26" s="9"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -3666,7 +3728,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E27" s="9"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -3687,7 +3749,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E28" s="9"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -3708,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E29" s="9"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -3729,7 +3791,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E30" s="9"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -3750,7 +3812,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E31" s="9"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -3771,7 +3833,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E32" s="9"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -3792,7 +3854,7 @@
         <v>839084</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E33" s="9"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -3813,7 +3875,7 @@
         <v>960.7</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E34" s="9"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -3834,7 +3896,7 @@
         <v>873.39</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E35" s="9"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -3855,7 +3917,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E36" s="10"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -3876,7 +3938,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E37" s="8">
         <v>4000</v>
       </c>
@@ -3899,7 +3961,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E38" s="9"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -3920,7 +3982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E39" s="9"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -3941,7 +4003,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E40" s="9"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -3962,7 +4024,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E41" s="9"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -3983,7 +4045,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E42" s="9"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -4004,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E43" s="9"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -4025,7 +4087,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E44" s="9"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -4046,7 +4108,7 @@
         <v>692.49</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E45" s="9"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -4067,7 +4129,7 @@
         <v>702.28</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E46" s="9"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -4088,7 +4150,7 @@
         <v>2129167</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E47" s="9"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -4109,7 +4171,7 @@
         <v>960.8</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E48" s="9"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -4130,7 +4192,7 @@
         <v>2216.09</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E49" s="9"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -4151,7 +4213,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" s="10"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -4187,19 +4249,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FCC0AA-C984-4903-81D8-D871D2663DA5}">
   <dimension ref="E7:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
     <col min="7" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
@@ -4210,7 +4272,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4233,7 +4295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E9" s="8">
         <v>100</v>
       </c>
@@ -4256,7 +4318,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E10" s="9"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -4277,7 +4339,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E11" s="9"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -4298,7 +4360,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E12" s="9"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -4319,7 +4381,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E13" s="9"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -4340,7 +4402,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E14" s="9"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -4361,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E15" s="9"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -4382,7 +4444,7 @@
         <v>43.13</v>
       </c>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E16" s="9"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -4403,7 +4465,7 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E17" s="9"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -4424,7 +4486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E18" s="9"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -4445,7 +4507,7 @@
         <v>83888</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E19" s="9"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -4466,7 +4528,7 @@
         <v>960.6</v>
       </c>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E20" s="9"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -4487,7 +4549,7 @@
         <v>87.33</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E21" s="9"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -4508,7 +4570,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E22" s="10"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -4529,7 +4591,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E23" s="8">
         <v>1000</v>
       </c>
@@ -4552,7 +4614,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E24" s="9"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -4573,7 +4635,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E25" s="9"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -4594,7 +4656,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E26" s="9"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -4615,7 +4677,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E27" s="9"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -4636,7 +4698,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E28" s="9"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -4657,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E29" s="9"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -4678,7 +4740,7 @@
         <v>142.69999999999999</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E30" s="9"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -4699,7 +4761,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E31" s="9"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -4720,7 +4782,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E32" s="9"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -4741,7 +4803,7 @@
         <v>838800</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E33" s="9"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -4762,7 +4824,7 @@
         <v>960.4</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E34" s="9"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -4783,7 +4845,7 @@
         <v>873.34</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E35" s="9"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -4804,7 +4866,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E36" s="10"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -4825,7 +4887,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E37" s="8">
         <v>4000</v>
       </c>
@@ -4848,7 +4910,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E38" s="9"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -4869,7 +4931,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E39" s="9"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -4890,7 +4952,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E40" s="9"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -4911,7 +4973,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E41" s="9"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -4932,7 +4994,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E42" s="9"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -4953,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E43" s="9"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -4974,7 +5036,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E44" s="9"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -4995,7 +5057,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E45" s="9"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -5016,7 +5078,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E46" s="9"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -5037,7 +5099,7 @@
         <v>1642210</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E47" s="9"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -5058,7 +5120,7 @@
         <v>960.6</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E48" s="9"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -5079,7 +5141,7 @@
         <v>1709.57</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E49" s="9"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -5100,7 +5162,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" s="10"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -5137,18 +5199,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33E3BDB-BD67-41A1-991C-2FB34B0212C5}">
   <dimension ref="E7:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
     <col min="7" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E7" s="5" t="s">
         <v>72</v>
       </c>
@@ -5159,7 +5221,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -5182,7 +5244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E9" s="8">
         <v>100</v>
       </c>
@@ -5205,7 +5267,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E10" s="9"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -5226,7 +5288,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E11" s="9"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -5247,7 +5309,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E12" s="9"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -5268,7 +5330,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E13" s="9"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -5289,7 +5351,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E14" s="9"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -5310,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E15" s="9"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -5331,7 +5393,7 @@
         <v>42.53</v>
       </c>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E16" s="9"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -5352,7 +5414,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E17" s="9"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -5373,7 +5435,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E18" s="9"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -5394,7 +5456,7 @@
         <v>83889</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E19" s="9"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -5415,7 +5477,7 @@
         <v>960.5</v>
       </c>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E20" s="9"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -5436,7 +5498,7 @@
         <v>87.34</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E21" s="9"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -5457,7 +5519,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E22" s="10"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -5478,7 +5540,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E23" s="8">
         <v>1000</v>
       </c>
@@ -5501,7 +5563,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E24" s="9"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -5522,7 +5584,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E25" s="9"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -5543,7 +5605,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E26" s="9"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -5564,7 +5626,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E27" s="9"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -5585,7 +5647,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E28" s="9"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -5606,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E29" s="9"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -5627,7 +5689,7 @@
         <v>42.03</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E30" s="9"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -5648,7 +5710,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E31" s="9"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -5669,7 +5731,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E32" s="9"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -5690,7 +5752,7 @@
         <v>838747</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E33" s="9"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -5711,7 +5773,7 @@
         <v>960.4</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E34" s="9"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -5732,7 +5794,7 @@
         <v>873.32</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E35" s="9"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -5753,7 +5815,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E36" s="10"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -5774,7 +5836,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E37" s="8">
         <v>4000</v>
       </c>
@@ -5797,7 +5859,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E38" s="9"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -5818,7 +5880,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E39" s="9"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -5839,7 +5901,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E40" s="9"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -5860,7 +5922,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E41" s="9"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -5881,7 +5943,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E42" s="9"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -5902,7 +5964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E43" s="9"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -5923,7 +5985,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E44" s="9"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -5944,7 +6006,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E45" s="9"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -5965,7 +6027,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E46" s="9"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -5986,7 +6048,7 @@
         <v>1707670</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E47" s="9"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -6007,7 +6069,7 @@
         <v>960.5</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E48" s="9"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -6028,7 +6090,7 @@
         <v>1777.84</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E49" s="9"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -6049,7 +6111,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" s="10"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -6086,18 +6148,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1C407F-A9FB-4106-8CC9-34E1EF3B9F3E}">
   <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
     <col min="7" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E7" s="5" t="s">
         <v>72</v>
       </c>
@@ -6108,7 +6170,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -6131,7 +6193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E9" s="8">
         <v>100</v>
       </c>
@@ -6154,7 +6216,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E10" s="9"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -6175,7 +6237,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E11" s="9"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -6196,7 +6258,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E12" s="9"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -6217,7 +6279,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E13" s="9"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -6238,7 +6300,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E14" s="9"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -6259,7 +6321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E15" s="9"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -6280,7 +6342,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E16" s="9"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -6301,7 +6363,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="9"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -6322,7 +6384,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="9"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -6347,7 +6409,7 @@
         <v>83902.399999999994</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19" s="9"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -6372,7 +6434,7 @@
         <v>960.41999999999985</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20" s="9"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -6397,7 +6459,7 @@
         <v>87.36</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" s="9"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -6418,7 +6480,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E22" s="10"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -6439,7 +6501,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E23" s="8">
         <v>1000</v>
       </c>
@@ -6462,7 +6524,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24" s="9"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -6483,7 +6545,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" s="9"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -6504,7 +6566,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" s="9"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -6525,7 +6587,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" s="9"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -6546,7 +6608,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E28" s="9"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -6567,7 +6629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E29" s="9"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -6588,7 +6650,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E30" s="9"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -6609,7 +6671,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E31" s="9"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -6630,7 +6692,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E32" s="9"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -6655,7 +6717,7 @@
         <v>838855.6</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E33" s="9"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -6680,7 +6742,7 @@
         <v>960.78000000000009</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E34" s="9"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -6705,7 +6767,7 @@
         <v>873.1</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E35" s="9"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -6726,7 +6788,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" s="10"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -6747,7 +6809,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="8">
         <v>4000</v>
       </c>
@@ -6770,7 +6832,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E38" s="9"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -6791,7 +6853,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E39" s="9"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -6812,7 +6874,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E40" s="9"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -6833,7 +6895,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E41" s="9"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -6854,7 +6916,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E42" s="9"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -6875,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43" s="9"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -6896,7 +6958,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44" s="9"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -6921,7 +6983,7 @@
         <v>958.87599999999998</v>
       </c>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E45" s="9"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -6946,7 +7008,7 @@
         <v>970.31799999999998</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E46" s="9"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -6971,7 +7033,7 @@
         <v>1860542.4</v>
       </c>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E47" s="9"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -6996,7 +7058,7 @@
         <v>960.72</v>
       </c>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E48" s="9"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -7021,7 +7083,7 @@
         <v>1936.5960000000002</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E49" s="9"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -7042,7 +7104,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" s="10"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -7062,6 +7124,819 @@
       <c r="K50" s="1" t="s">
         <v>342</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="E9:E22"/>
+    <mergeCell ref="E23:E36"/>
+    <mergeCell ref="E37:E50"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0A94C8-641F-492A-8CA6-73C854743563}">
+  <dimension ref="E7:L50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="11" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E9" s="8">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E10" s="9"/>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="9"/>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="9"/>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="9"/>
+      <c r="F13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.62</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="9"/>
+      <c r="F14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>144.29</v>
+      </c>
+      <c r="H15" s="1">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="I15" s="1">
+        <v>144.24</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E16" s="9"/>
+      <c r="F16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4.12</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4.18</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="9"/>
+      <c r="F17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4.88</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1">
+        <v>83864</v>
+      </c>
+      <c r="H18" s="1">
+        <v>83858</v>
+      </c>
+      <c r="I18" s="1">
+        <v>83859</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18">
+        <f>AVERAGE(G18:K18)</f>
+        <v>83860.333333333328</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
+      <c r="F19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="H19" s="1">
+        <v>960</v>
+      </c>
+      <c r="I19" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19">
+        <f t="shared" ref="L19:L20" si="0">AVERAGE(G19:K19)</f>
+        <v>960.5333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="9"/>
+      <c r="F20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="1">
+        <v>87.3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>87.35</v>
+      </c>
+      <c r="I20" s="1">
+        <v>87.27</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>87.306666666666658</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="9"/>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E22" s="10"/>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E24" s="9"/>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E25" s="9"/>
+      <c r="F25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E26" s="9"/>
+      <c r="F26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E27" s="9"/>
+      <c r="F27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2.27</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E28" s="9"/>
+      <c r="F28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E29" s="9"/>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2">
+        <v>41.82</v>
+      </c>
+      <c r="H29" s="2">
+        <v>143.97</v>
+      </c>
+      <c r="I29" s="2">
+        <v>72.84</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E30" s="9"/>
+      <c r="F30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="2">
+        <v>3.02</v>
+      </c>
+      <c r="H30" s="2">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="I30" s="2">
+        <v>4</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E31" s="9"/>
+      <c r="F31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2">
+        <v>3.59</v>
+      </c>
+      <c r="H31" s="2">
+        <v>6.11</v>
+      </c>
+      <c r="I31" s="2">
+        <v>5.14</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E32" s="9"/>
+      <c r="F32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2">
+        <v>838760</v>
+      </c>
+      <c r="H32" s="2">
+        <v>838102</v>
+      </c>
+      <c r="I32" s="2">
+        <v>838315</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32">
+        <f>AVERAGE(G32:K32)</f>
+        <v>838392.33333333337</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E33" s="9"/>
+      <c r="F33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="2">
+        <v>960.4</v>
+      </c>
+      <c r="H33" s="2">
+        <v>960.8</v>
+      </c>
+      <c r="I33" s="2">
+        <v>960.8</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33">
+        <f t="shared" ref="L33:L34" si="1">AVERAGE(G33:K33)</f>
+        <v>960.66666666666663</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E34" s="9"/>
+      <c r="F34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="2">
+        <v>873.38</v>
+      </c>
+      <c r="H34" s="2">
+        <v>872.32</v>
+      </c>
+      <c r="I34" s="2">
+        <v>872.5</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>872.73333333333323</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E35" s="9"/>
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E36" s="10"/>
+      <c r="F36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E37" s="8">
+        <v>4000</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E38" s="9"/>
+      <c r="F38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E39" s="9"/>
+      <c r="F39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E40" s="9"/>
+      <c r="F40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E41" s="9"/>
+      <c r="F41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E42" s="9"/>
+      <c r="F42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E43" s="9"/>
+      <c r="F43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E44" s="9"/>
+      <c r="F44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" t="e">
+        <f>AVERAGE(G44:K44)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E45" s="9"/>
+      <c r="F45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" t="e">
+        <f t="shared" ref="L45:L48" si="2">AVERAGE(G45:K45)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E46" s="9"/>
+      <c r="F46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E47" s="9"/>
+      <c r="F47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E48" s="9"/>
+      <c r="F48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E49" s="9"/>
+      <c r="F49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E50" s="10"/>
+      <c r="F50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Wyniki 3/S2.xlsx
+++ b/Wyniki 3/S2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA485C9-E7A6-4F3F-97F7-15FA1F85106B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25656B42-30E6-40EA-8974-EA174BB01A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REST" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Graphql - wybrane dane" sheetId="6" r:id="rId4"/>
     <sheet name="Graphql - wybrane dane (optyma)" sheetId="8" r:id="rId5"/>
     <sheet name="Graphql resolved" sheetId="9" r:id="rId6"/>
+    <sheet name="Graphql resolved wybrane dane" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="358">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -1082,6 +1083,39 @@
   </si>
   <si>
     <t>591MB</t>
+  </si>
+  <si>
+    <t>49MB</t>
+  </si>
+  <si>
+    <t>40MB</t>
+  </si>
+  <si>
+    <t>487MB</t>
+  </si>
+  <si>
+    <t>399MB</t>
+  </si>
+  <si>
+    <t>905MB</t>
+  </si>
+  <si>
+    <t>743MB</t>
+  </si>
+  <si>
+    <t>887MB</t>
+  </si>
+  <si>
+    <t>728MB</t>
+  </si>
+  <si>
+    <t>906MB</t>
+  </si>
+  <si>
+    <t>744MB</t>
+  </si>
+  <si>
+    <t>72Mb</t>
   </si>
 </sst>
 </file>
@@ -1457,6 +1491,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>473906</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>35647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0978B2C3-B2DB-4F4F-A7C2-0E71830B8D7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11410950" y="1143000"/>
+          <a:ext cx="5960306" cy="5179147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1722,7 +1805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E7:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -3301,7 +3384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E427240-8CAA-40AB-9EE3-C007F0D8C5C2}">
   <dimension ref="E7:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L16" sqref="L16:L50"/>
     </sheetView>
   </sheetViews>
@@ -6148,7 +6231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1C407F-A9FB-4106-8CC9-34E1EF3B9F3E}">
   <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
@@ -7141,8 +7224,1054 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0A94C8-641F-492A-8CA6-73C854743563}">
   <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E9" s="8">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="9"/>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E11" s="9"/>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E12" s="9"/>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E13" s="9"/>
+      <c r="F13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="L13">
+        <f>AVERAGE(G13:K13)</f>
+        <v>2.528</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E14" s="9"/>
+      <c r="F14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:L36" si="0">AVERAGE(G14:K14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>144.29</v>
+      </c>
+      <c r="H15" s="1">
+        <v>144.44999999999999</v>
+      </c>
+      <c r="I15" s="1">
+        <v>144.24</v>
+      </c>
+      <c r="J15" s="1">
+        <v>140.97999999999999</v>
+      </c>
+      <c r="K15" s="1">
+        <v>146.81</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>144.154</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E16" s="9"/>
+      <c r="F16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4.12</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4.18</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4.21</v>
+      </c>
+      <c r="K16" s="1">
+        <v>4.21</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>4.1840000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="9"/>
+      <c r="F17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4.88</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="K17" s="1">
+        <v>4.96</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>4.9060000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1">
+        <v>83864</v>
+      </c>
+      <c r="H18" s="1">
+        <v>83864</v>
+      </c>
+      <c r="I18" s="1">
+        <v>83859</v>
+      </c>
+      <c r="J18" s="1">
+        <v>83863</v>
+      </c>
+      <c r="K18" s="1">
+        <v>84865</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>84063</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
+      <c r="F19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="H19" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="I19" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="J19" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="K19" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>960.8</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="9"/>
+      <c r="F20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="1">
+        <v>87.3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>87.28</v>
+      </c>
+      <c r="I20" s="1">
+        <v>87.27</v>
+      </c>
+      <c r="J20" s="1">
+        <v>87.29</v>
+      </c>
+      <c r="K20" s="1">
+        <v>87.29</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>87.286000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="9"/>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="L21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E22" s="10"/>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E24" s="9"/>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E25" s="9"/>
+      <c r="F25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E26" s="9"/>
+      <c r="F26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L26" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E27" s="9"/>
+      <c r="F27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2.09</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2.27</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1.82</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>1.9520000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E28" s="9"/>
+      <c r="F28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E29" s="9"/>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2">
+        <v>41.82</v>
+      </c>
+      <c r="H29" s="2">
+        <v>85.6</v>
+      </c>
+      <c r="I29" s="2">
+        <v>72.84</v>
+      </c>
+      <c r="J29" s="2">
+        <v>42.31</v>
+      </c>
+      <c r="K29" s="2">
+        <v>144.36000000000001</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>77.385999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E30" s="9"/>
+      <c r="F30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="2">
+        <v>3.02</v>
+      </c>
+      <c r="H30" s="2">
+        <v>3.62</v>
+      </c>
+      <c r="I30" s="2">
+        <v>4</v>
+      </c>
+      <c r="J30" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>3.08</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>3.3639999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E31" s="9"/>
+      <c r="F31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2">
+        <v>3.59</v>
+      </c>
+      <c r="H31" s="2">
+        <v>4.62</v>
+      </c>
+      <c r="I31" s="2">
+        <v>5.14</v>
+      </c>
+      <c r="J31" s="2">
+        <v>3.69</v>
+      </c>
+      <c r="K31" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>4.1379999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E32" s="9"/>
+      <c r="F32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2">
+        <v>838760</v>
+      </c>
+      <c r="H32" s="2">
+        <v>838513</v>
+      </c>
+      <c r="I32" s="2">
+        <v>838315</v>
+      </c>
+      <c r="J32" s="2">
+        <v>838718</v>
+      </c>
+      <c r="K32" s="2">
+        <v>838722</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>838605.6</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E33" s="9"/>
+      <c r="F33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="2">
+        <v>960.4</v>
+      </c>
+      <c r="H33" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="I33" s="2">
+        <v>960.8</v>
+      </c>
+      <c r="J33" s="2">
+        <v>960.4</v>
+      </c>
+      <c r="K33" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>960.54000000000019</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E34" s="9"/>
+      <c r="F34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="2">
+        <v>873.38</v>
+      </c>
+      <c r="H34" s="2">
+        <v>872.9</v>
+      </c>
+      <c r="I34" s="2">
+        <v>872.5</v>
+      </c>
+      <c r="J34" s="2">
+        <v>873.29</v>
+      </c>
+      <c r="K34" s="2">
+        <v>873.21</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>873.05599999999993</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E35" s="9"/>
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E36" s="10"/>
+      <c r="F36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="L36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E37" s="8">
+        <v>4000</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E38" s="9"/>
+      <c r="F38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E39" s="9"/>
+      <c r="F39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E40" s="9"/>
+      <c r="F40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E41" s="9"/>
+      <c r="F41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1330</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1360</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1320</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41">
+        <f>AVERAGE(G41:I41)</f>
+        <v>1336.6666666666667</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E42" s="9"/>
+      <c r="F42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42">
+        <f t="shared" ref="L42:L50" si="1">AVERAGE(G42:I42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E43" s="9"/>
+      <c r="F43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1810</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1910</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1880</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>1866.6666666666667</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E44" s="9"/>
+      <c r="F44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1570</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1600</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1560</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>1576.6666666666667</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E45" s="9"/>
+      <c r="F45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1590</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1620</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1570</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>1593.3333333333333</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E46" s="9"/>
+      <c r="F46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1437701</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1422240</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1445244</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46">
+        <f t="shared" si="1"/>
+        <v>1435061.6666666667</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E47" s="9"/>
+      <c r="F47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="H47" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="I47" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47">
+        <f t="shared" si="1"/>
+        <v>960.76666666666677</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E48" s="9"/>
+      <c r="F48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1496.47</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1480.09</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1504.42</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48">
+        <f t="shared" si="1"/>
+        <v>1493.6599999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E49" s="9"/>
+      <c r="F49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E50" s="10"/>
+      <c r="F50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="E9:E22"/>
+    <mergeCell ref="E23:E36"/>
+    <mergeCell ref="E37:E50"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BDC36D-13C2-4AA6-BA48-7C2002449037}">
+  <dimension ref="E7:L50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7152,7 +8281,7 @@
     <col min="7" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E7" s="5" t="s">
         <v>72</v>
       </c>
@@ -7163,7 +8292,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -7186,7 +8315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E9" s="8">
         <v>100</v>
       </c>
@@ -7209,7 +8338,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E10" s="9"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -7230,7 +8359,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E11" s="9"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -7251,7 +8380,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E12" s="9"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -7272,24 +8401,28 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E13" s="9"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H13" s="1">
-        <v>2.62</v>
+        <v>2.39</v>
       </c>
       <c r="I13" s="1">
-        <v>2.5499999999999998</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f>AVERAGE(G13:I13)</f>
+        <v>2.3699999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E14" s="9"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -7305,40 +8438,52 @@
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f t="shared" ref="L14:L50" si="0">AVERAGE(G14:I14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E15" s="9"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="1">
-        <v>144.29</v>
+        <v>140.84</v>
       </c>
       <c r="H15" s="1">
-        <v>144.19999999999999</v>
+        <v>148.77000000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>144.24</v>
+        <v>148.72999999999999</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>146.11333333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E16" s="9"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="1">
-        <v>4.12</v>
+        <v>3.96</v>
       </c>
       <c r="H16" s="1">
-        <v>4.26</v>
+        <v>3.82</v>
       </c>
       <c r="I16" s="1">
-        <v>4.18</v>
+        <v>3.81</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>3.8633333333333333</v>
+      </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="9"/>
@@ -7346,16 +8491,20 @@
         <v>5</v>
       </c>
       <c r="G17" s="1">
-        <v>4.8099999999999996</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="H17" s="1">
-        <v>4.9400000000000004</v>
+        <v>4.45</v>
       </c>
       <c r="I17" s="1">
-        <v>4.88</v>
+        <v>4.47</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>4.5100000000000007</v>
+      </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="9"/>
@@ -7363,19 +8512,19 @@
         <v>6</v>
       </c>
       <c r="G18" s="1">
-        <v>83864</v>
+        <v>83878</v>
       </c>
       <c r="H18" s="1">
-        <v>83858</v>
+        <v>83880</v>
       </c>
       <c r="I18" s="1">
-        <v>83859</v>
+        <v>83884</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18">
-        <f>AVERAGE(G18:K18)</f>
-        <v>83860.333333333328</v>
+        <f t="shared" si="0"/>
+        <v>83880.666666666672</v>
       </c>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.25">
@@ -7384,19 +8533,19 @@
         <v>7</v>
       </c>
       <c r="G19" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="H19" s="1">
         <v>960.7</v>
       </c>
-      <c r="H19" s="1">
-        <v>960</v>
-      </c>
       <c r="I19" s="1">
-        <v>960.9</v>
+        <v>960.8</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19">
-        <f t="shared" ref="L19:L20" si="0">AVERAGE(G19:K19)</f>
-        <v>960.5333333333333</v>
+        <f t="shared" si="0"/>
+        <v>960.76666666666677</v>
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
@@ -7408,16 +8557,16 @@
         <v>87.3</v>
       </c>
       <c r="H20" s="1">
-        <v>87.35</v>
+        <v>87.31</v>
       </c>
       <c r="I20" s="1">
-        <v>87.27</v>
+        <v>87.31</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>87.306666666666658</v>
+        <v>87.306666666666672</v>
       </c>
     </row>
     <row r="21" spans="5:12" x14ac:dyDescent="0.25">
@@ -7426,16 +8575,20 @@
         <v>11</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
+      <c r="L21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="22" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E22" s="10"/>
@@ -7443,16 +8596,20 @@
         <v>9</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
+      <c r="L22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="23" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E23" s="8">
@@ -7475,6 +8632,10 @@
       </c>
       <c r="K23" s="2" t="s">
         <v>73</v>
+      </c>
+      <c r="L23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="5:12" x14ac:dyDescent="0.25">
@@ -7497,6 +8658,10 @@
       <c r="K24" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="L24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" s="9"/>
@@ -7518,6 +8683,10 @@
       <c r="K25" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="L25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" s="9"/>
@@ -7539,6 +8708,10 @@
       <c r="K26" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="L26" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" s="9"/>
@@ -7546,16 +8719,20 @@
         <v>1</v>
       </c>
       <c r="G27" s="2">
-        <v>1.78</v>
+        <v>1.51</v>
       </c>
       <c r="H27" s="2">
-        <v>2.5299999999999998</v>
+        <v>1.51</v>
       </c>
       <c r="I27" s="2">
-        <v>2.27</v>
+        <v>1.51</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>1.51</v>
+      </c>
     </row>
     <row r="28" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E28" s="9"/>
@@ -7573,6 +8750,10 @@
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E29" s="9"/>
@@ -7580,16 +8761,20 @@
         <v>3</v>
       </c>
       <c r="G29" s="2">
-        <v>41.82</v>
+        <v>133.25</v>
       </c>
       <c r="H29" s="2">
-        <v>143.97</v>
+        <v>142.96</v>
       </c>
       <c r="I29" s="2">
-        <v>72.84</v>
+        <v>40.4</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>105.53666666666668</v>
+      </c>
     </row>
     <row r="30" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E30" s="9"/>
@@ -7597,16 +8782,20 @@
         <v>4</v>
       </c>
       <c r="G30" s="2">
-        <v>3.02</v>
+        <v>2.57</v>
       </c>
       <c r="H30" s="2">
-        <v>4.6399999999999997</v>
+        <v>2.57</v>
       </c>
       <c r="I30" s="2">
-        <v>4</v>
+        <v>2.57</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>2.57</v>
+      </c>
     </row>
     <row r="31" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E31" s="9"/>
@@ -7614,16 +8803,20 @@
         <v>5</v>
       </c>
       <c r="G31" s="2">
-        <v>3.59</v>
+        <v>3.05</v>
       </c>
       <c r="H31" s="2">
-        <v>6.11</v>
+        <v>3.05</v>
       </c>
       <c r="I31" s="2">
-        <v>5.14</v>
+        <v>3.06</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>3.0533333333333332</v>
+      </c>
     </row>
     <row r="32" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E32" s="9"/>
@@ -7631,19 +8824,19 @@
         <v>6</v>
       </c>
       <c r="G32" s="2">
-        <v>838760</v>
+        <v>838985</v>
       </c>
       <c r="H32" s="2">
-        <v>838102</v>
+        <v>838991</v>
       </c>
       <c r="I32" s="2">
-        <v>838315</v>
+        <v>838978</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32">
-        <f>AVERAGE(G32:K32)</f>
-        <v>838392.33333333337</v>
+        <f t="shared" si="0"/>
+        <v>838984.66666666663</v>
       </c>
     </row>
     <row r="33" spans="5:12" x14ac:dyDescent="0.25">
@@ -7652,19 +8845,19 @@
         <v>7</v>
       </c>
       <c r="G33" s="2">
-        <v>960.4</v>
+        <v>960.9</v>
       </c>
       <c r="H33" s="2">
-        <v>960.8</v>
+        <v>960.9</v>
       </c>
       <c r="I33" s="2">
-        <v>960.8</v>
+        <v>960.9</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33">
-        <f t="shared" ref="L33:L34" si="1">AVERAGE(G33:K33)</f>
-        <v>960.66666666666663</v>
+        <f t="shared" si="0"/>
+        <v>960.9</v>
       </c>
     </row>
     <row r="34" spans="5:12" x14ac:dyDescent="0.25">
@@ -7673,19 +8866,19 @@
         <v>8</v>
       </c>
       <c r="G34" s="2">
-        <v>873.38</v>
+        <v>873.13</v>
       </c>
       <c r="H34" s="2">
-        <v>872.32</v>
+        <v>873.14</v>
       </c>
       <c r="I34" s="2">
-        <v>872.5</v>
+        <v>873.15</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34">
-        <f t="shared" si="1"/>
-        <v>872.73333333333323</v>
+        <f t="shared" si="0"/>
+        <v>873.14</v>
       </c>
     </row>
     <row r="35" spans="5:12" x14ac:dyDescent="0.25">
@@ -7694,16 +8887,20 @@
         <v>11</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
+      <c r="L35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" s="10"/>
@@ -7711,16 +8908,20 @@
         <v>9</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
+      <c r="L36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="8">
@@ -7743,6 +8944,10 @@
       </c>
       <c r="K37" s="1" t="s">
         <v>73</v>
+      </c>
+      <c r="L37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="5:12" x14ac:dyDescent="0.25">
@@ -7765,6 +8970,10 @@
       <c r="K38" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="L38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E39" s="9"/>
@@ -7786,6 +8995,10 @@
       <c r="K39" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="L39" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E40" s="9"/>
@@ -7807,53 +9020,93 @@
       <c r="K40" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="L40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E41" s="9"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="G41" s="1">
+        <v>1150</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1190</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1150</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>1163.3333333333333</v>
+      </c>
     </row>
     <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E42" s="9"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43" s="9"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="G43" s="1">
+        <v>1710</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1760</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1530</v>
+      </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>1666.6666666666667</v>
+      </c>
     </row>
     <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44" s="9"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="G44" s="1">
+        <v>1360</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1410</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1360</v>
+      </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" t="e">
-        <f>AVERAGE(G44:K44)</f>
-        <v>#DIV/0!</v>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>1376.6666666666667</v>
       </c>
     </row>
     <row r="45" spans="5:12" x14ac:dyDescent="0.25">
@@ -7861,14 +9114,20 @@
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="G45" s="1">
+        <v>1380</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1430</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1370</v>
+      </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" t="e">
-        <f t="shared" ref="L45:L48" si="2">AVERAGE(G45:K45)</f>
-        <v>#DIV/0!</v>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>1393.3333333333333</v>
       </c>
     </row>
     <row r="46" spans="5:12" x14ac:dyDescent="0.25">
@@ -7876,14 +9135,20 @@
       <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="G46" s="1">
+        <v>1561064</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1529665</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1562279</v>
+      </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>1551002.6666666667</v>
       </c>
     </row>
     <row r="47" spans="5:12" x14ac:dyDescent="0.25">
@@ -7891,14 +9156,20 @@
       <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="G47" s="1">
+        <v>960.4</v>
+      </c>
+      <c r="H47" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="I47" s="1">
+        <v>960.8</v>
+      </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>960.63333333333321</v>
       </c>
     </row>
     <row r="48" spans="5:12" x14ac:dyDescent="0.25">
@@ -7906,37 +9177,63 @@
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="G48" s="1">
+        <v>1625.35</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1592.18</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1625.98</v>
+      </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>1614.5033333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49" s="9"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L49" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" s="10"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
+      <c r="L50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Wyniki 3/S2.xlsx
+++ b/Wyniki 3/S2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25656B42-30E6-40EA-8974-EA174BB01A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDAEBB5-BD28-45B0-A5FC-D72742A27454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REST" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="384">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -1116,6 +1116,84 @@
   </si>
   <si>
     <t>72Mb</t>
+  </si>
+  <si>
+    <t>879MB</t>
+  </si>
+  <si>
+    <t>895MB</t>
+  </si>
+  <si>
+    <t>897MB</t>
+  </si>
+  <si>
+    <t>787MB</t>
+  </si>
+  <si>
+    <t>646MB</t>
+  </si>
+  <si>
+    <t>784MB</t>
+  </si>
+  <si>
+    <t>644MB</t>
+  </si>
+  <si>
+    <t>792MB</t>
+  </si>
+  <si>
+    <t>650MB</t>
+  </si>
+  <si>
+    <t>779MB</t>
+  </si>
+  <si>
+    <t>639MB</t>
+  </si>
+  <si>
+    <t>885MB</t>
+  </si>
+  <si>
+    <t>889MB</t>
+  </si>
+  <si>
+    <t>890MB</t>
+  </si>
+  <si>
+    <t>747MB</t>
+  </si>
+  <si>
+    <t>616MB</t>
+  </si>
+  <si>
+    <t>745MB</t>
+  </si>
+  <si>
+    <t>614MB</t>
+  </si>
+  <si>
+    <t>738MB</t>
+  </si>
+  <si>
+    <t>609MB</t>
+  </si>
+  <si>
+    <t>750MB</t>
+  </si>
+  <si>
+    <t>618MB</t>
+  </si>
+  <si>
+    <t>746MB</t>
+  </si>
+  <si>
+    <t>615MB</t>
+  </si>
+  <si>
+    <t>829MB</t>
+  </si>
+  <si>
+    <t>828MB</t>
   </si>
 </sst>
 </file>
@@ -4330,10 +4408,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FCC0AA-C984-4903-81D8-D871D2663DA5}">
-  <dimension ref="E7:K50"/>
+  <dimension ref="E7:K64"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4972,7 +5050,7 @@
     </row>
     <row r="37" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E37" s="8">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -5061,20 +5139,20 @@
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>100</v>
+      <c r="G41" s="1">
+        <v>360.5</v>
+      </c>
+      <c r="H41" s="1">
+        <v>353.63</v>
+      </c>
+      <c r="I41" s="1">
+        <v>351.92</v>
+      </c>
+      <c r="J41" s="1">
+        <v>374.85</v>
+      </c>
+      <c r="K41" s="1">
+        <v>354.4</v>
       </c>
     </row>
     <row r="42" spans="5:11" x14ac:dyDescent="0.25">
@@ -5103,20 +5181,20 @@
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>113</v>
+      <c r="G43" s="1">
+        <v>682.34</v>
+      </c>
+      <c r="H43" s="1">
+        <v>542.29999999999995</v>
+      </c>
+      <c r="I43" s="1">
+        <v>502.11</v>
+      </c>
+      <c r="J43" s="1">
+        <v>679.37</v>
+      </c>
+      <c r="K43" s="1">
+        <v>577.41999999999996</v>
       </c>
     </row>
     <row r="44" spans="5:11" x14ac:dyDescent="0.25">
@@ -5124,20 +5202,20 @@
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>102</v>
+      <c r="G44" s="1">
+        <v>436.33</v>
+      </c>
+      <c r="H44" s="1">
+        <v>426.19</v>
+      </c>
+      <c r="I44" s="1">
+        <v>424.6</v>
+      </c>
+      <c r="J44" s="1">
+        <v>453.41</v>
+      </c>
+      <c r="K44" s="1">
+        <v>427.61</v>
       </c>
     </row>
     <row r="45" spans="5:11" x14ac:dyDescent="0.25">
@@ -5145,20 +5223,20 @@
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>103</v>
+      <c r="G45" s="1">
+        <v>447.22</v>
+      </c>
+      <c r="H45" s="1">
+        <v>432.09</v>
+      </c>
+      <c r="I45" s="1">
+        <v>430.5</v>
+      </c>
+      <c r="J45" s="1">
+        <v>461.1</v>
+      </c>
+      <c r="K45" s="1">
+        <v>433.92</v>
       </c>
     </row>
     <row r="46" spans="5:11" x14ac:dyDescent="0.25">
@@ -5167,19 +5245,19 @@
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>1647840</v>
+        <v>1235330</v>
       </c>
       <c r="H46" s="1">
-        <v>1649081</v>
+        <v>1241607</v>
       </c>
       <c r="I46" s="1">
-        <v>1632663</v>
+        <v>1243161</v>
       </c>
       <c r="J46" s="1">
-        <v>1637653</v>
+        <v>1222453</v>
       </c>
       <c r="K46" s="1">
-        <v>1642210</v>
+        <v>1240888</v>
       </c>
     </row>
     <row r="47" spans="5:11" x14ac:dyDescent="0.25">
@@ -5188,19 +5266,19 @@
         <v>7</v>
       </c>
       <c r="G47" s="1">
-        <v>960.8</v>
+        <v>960.7</v>
       </c>
       <c r="H47" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="I47" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="J47" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="K47" s="1">
         <v>960.7</v>
-      </c>
-      <c r="I47" s="1">
-        <v>960.9</v>
-      </c>
-      <c r="J47" s="1">
-        <v>960.7</v>
-      </c>
-      <c r="K47" s="1">
-        <v>960.6</v>
       </c>
     </row>
     <row r="48" spans="5:11" x14ac:dyDescent="0.25">
@@ -5209,19 +5287,19 @@
         <v>8</v>
       </c>
       <c r="G48" s="1">
-        <v>1714.99</v>
+        <v>1285.9100000000001</v>
       </c>
       <c r="H48" s="1">
-        <v>1716.54</v>
+        <v>1292.69</v>
       </c>
       <c r="I48" s="1">
-        <v>1699.09</v>
+        <v>1294.1400000000001</v>
       </c>
       <c r="J48" s="1">
-        <v>1704.57</v>
+        <v>1272.26</v>
       </c>
       <c r="K48" s="1">
-        <v>1709.57</v>
+        <v>1291.69</v>
       </c>
     </row>
     <row r="49" spans="5:11" x14ac:dyDescent="0.25">
@@ -5230,19 +5308,19 @@
         <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>104</v>
+        <v>330</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>104</v>
+        <v>330</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>104</v>
+        <v>330</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>104</v>
+        <v>330</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>104</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="5:11" x14ac:dyDescent="0.25">
@@ -5251,27 +5329,324 @@
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E51" s="8">
+        <v>4000</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E52" s="9"/>
+      <c r="F52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E53" s="9"/>
+      <c r="F53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E54" s="9"/>
+      <c r="F54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E55" s="9"/>
+      <c r="F55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E56" s="9"/>
+      <c r="F56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E57" s="9"/>
+      <c r="F57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E58" s="9"/>
+      <c r="F58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E59" s="9"/>
+      <c r="F59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E60" s="9"/>
+      <c r="F60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1647840</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1649081</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1632663</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1637653</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1642210</v>
+      </c>
+    </row>
+    <row r="61" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E61" s="9"/>
+      <c r="F61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="H61" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="I61" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="J61" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="K61" s="1">
+        <v>960.6</v>
+      </c>
+    </row>
+    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E62" s="9"/>
+      <c r="F62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1714.99</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1716.54</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1699.09</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1704.57</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1709.57</v>
+      </c>
+    </row>
+    <row r="63" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E63" s="9"/>
+      <c r="F63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E64" s="10"/>
+      <c r="F64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J64" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K64" s="1" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E7:K7"/>
     <mergeCell ref="E9:E22"/>
     <mergeCell ref="E23:E36"/>
     <mergeCell ref="E37:E50"/>
+    <mergeCell ref="E51:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5280,10 +5655,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33E3BDB-BD67-41A1-991C-2FB34B0212C5}">
-  <dimension ref="E7:K50"/>
+  <dimension ref="E7:K64"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5921,7 +6296,7 @@
     </row>
     <row r="37" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E37" s="8">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -6010,20 +6385,20 @@
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>91</v>
+      <c r="G41" s="1">
+        <v>329.45</v>
+      </c>
+      <c r="H41" s="1">
+        <v>333.3</v>
+      </c>
+      <c r="I41" s="1">
+        <v>345.14</v>
+      </c>
+      <c r="J41" s="1">
+        <v>325.06</v>
+      </c>
+      <c r="K41" s="1">
+        <v>331.54</v>
       </c>
     </row>
     <row r="42" spans="5:11" x14ac:dyDescent="0.25">
@@ -6052,20 +6427,20 @@
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>92</v>
+      <c r="G43" s="1">
+        <v>480.67</v>
+      </c>
+      <c r="H43" s="1">
+        <v>593.16</v>
+      </c>
+      <c r="I43" s="1">
+        <v>626.95000000000005</v>
+      </c>
+      <c r="J43" s="1">
+        <v>529.88</v>
+      </c>
+      <c r="K43" s="1">
+        <v>487</v>
       </c>
     </row>
     <row r="44" spans="5:11" x14ac:dyDescent="0.25">
@@ -6073,20 +6448,20 @@
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>93</v>
+      <c r="G44" s="1">
+        <v>398.34</v>
+      </c>
+      <c r="H44" s="1">
+        <v>402.78</v>
+      </c>
+      <c r="I44" s="1">
+        <v>417.79</v>
+      </c>
+      <c r="J44" s="1">
+        <v>393.47</v>
+      </c>
+      <c r="K44" s="1">
+        <v>400.96</v>
       </c>
     </row>
     <row r="45" spans="5:11" x14ac:dyDescent="0.25">
@@ -6094,20 +6469,20 @@
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>69</v>
+      <c r="G45" s="1">
+        <v>404.15</v>
+      </c>
+      <c r="H45" s="1">
+        <v>409.7</v>
+      </c>
+      <c r="I45" s="1">
+        <v>425.08</v>
+      </c>
+      <c r="J45" s="1">
+        <v>399.85</v>
+      </c>
+      <c r="K45" s="1">
+        <v>407.3</v>
       </c>
     </row>
     <row r="46" spans="5:11" x14ac:dyDescent="0.25">
@@ -6116,19 +6491,19 @@
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>1680403</v>
+        <v>1264180</v>
       </c>
       <c r="H46" s="1">
-        <v>1684670</v>
+        <v>1260529</v>
       </c>
       <c r="I46" s="1">
-        <v>1704827</v>
+        <v>1249442</v>
       </c>
       <c r="J46" s="1">
-        <v>1688765</v>
+        <v>1268353</v>
       </c>
       <c r="K46" s="1">
-        <v>1707670</v>
+        <v>1262197</v>
       </c>
     </row>
     <row r="47" spans="5:11" x14ac:dyDescent="0.25">
@@ -6137,19 +6512,19 @@
         <v>7</v>
       </c>
       <c r="G47" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="H47" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="I47" s="1">
         <v>960.5</v>
       </c>
-      <c r="H47" s="1">
-        <v>961</v>
-      </c>
-      <c r="I47" s="1">
+      <c r="J47" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="K47" s="1">
         <v>960.8</v>
-      </c>
-      <c r="J47" s="1">
-        <v>961</v>
-      </c>
-      <c r="K47" s="1">
-        <v>960.5</v>
       </c>
     </row>
     <row r="48" spans="5:11" x14ac:dyDescent="0.25">
@@ -6158,19 +6533,19 @@
         <v>8</v>
       </c>
       <c r="G48" s="1">
-        <v>1749.48</v>
+        <v>1315.82</v>
       </c>
       <c r="H48" s="1">
-        <v>1753.08</v>
+        <v>1312.1</v>
       </c>
       <c r="I48" s="1">
-        <v>1774.46</v>
+        <v>1300.83</v>
       </c>
       <c r="J48" s="1">
-        <v>1757.39</v>
+        <v>1320.19</v>
       </c>
       <c r="K48" s="1">
-        <v>1777.84</v>
+        <v>1313.69</v>
       </c>
     </row>
     <row r="49" spans="5:11" x14ac:dyDescent="0.25">
@@ -6179,19 +6554,19 @@
         <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>82</v>
+        <v>374</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>86</v>
+        <v>376</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>89</v>
+        <v>378</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>86</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50" spans="5:11" x14ac:dyDescent="0.25">
@@ -6200,27 +6575,324 @@
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E51" s="8">
+        <v>4000</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E52" s="9"/>
+      <c r="F52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E53" s="9"/>
+      <c r="F53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E54" s="9"/>
+      <c r="F54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E55" s="9"/>
+      <c r="F55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E56" s="9"/>
+      <c r="F56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E57" s="9"/>
+      <c r="F57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E58" s="9"/>
+      <c r="F58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E59" s="9"/>
+      <c r="F59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E60" s="9"/>
+      <c r="F60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1680403</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1684670</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1704827</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1688765</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1707670</v>
+      </c>
+    </row>
+    <row r="61" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E61" s="9"/>
+      <c r="F61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="H61" s="1">
+        <v>961</v>
+      </c>
+      <c r="I61" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="J61" s="1">
+        <v>961</v>
+      </c>
+      <c r="K61" s="1">
+        <v>960.5</v>
+      </c>
+    </row>
+    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E62" s="9"/>
+      <c r="F62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1749.48</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1753.08</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1774.46</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1757.39</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1777.84</v>
+      </c>
+    </row>
+    <row r="63" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E63" s="9"/>
+      <c r="F63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E64" s="10"/>
+      <c r="F64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J64" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K64" s="1" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E7:K7"/>
     <mergeCell ref="E9:E22"/>
     <mergeCell ref="E23:E36"/>
     <mergeCell ref="E37:E50"/>
+    <mergeCell ref="E51:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6229,10 +6901,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1C407F-A9FB-4106-8CC9-34E1EF3B9F3E}">
-  <dimension ref="E7:L50"/>
+  <dimension ref="E7:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6894,7 +7566,7 @@
     </row>
     <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="8">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -6983,21 +7655,15 @@
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>340</v>
-      </c>
+      <c r="G41" s="1">
+        <v>6.05</v>
+      </c>
+      <c r="H41" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
     </row>
     <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E42" s="9"/>
@@ -7010,36 +7676,24 @@
       <c r="H42" s="1">
         <v>0</v>
       </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1">
-        <v>0</v>
-      </c>
-      <c r="K42" s="1">
-        <v>0</v>
-      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
     </row>
     <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43" s="9"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>341</v>
-      </c>
+      <c r="G43" s="1">
+        <v>187.94</v>
+      </c>
+      <c r="H43" s="1">
+        <v>162.85</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
     </row>
     <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44" s="9"/>
@@ -7047,23 +7701,17 @@
         <v>4</v>
       </c>
       <c r="G44" s="1">
-        <v>965.1</v>
+        <v>12.42</v>
       </c>
       <c r="H44" s="1">
-        <v>950.06</v>
-      </c>
-      <c r="I44" s="1">
-        <v>968.17</v>
-      </c>
-      <c r="J44" s="1">
-        <v>950.04</v>
-      </c>
-      <c r="K44" s="1">
-        <v>961.01</v>
-      </c>
+        <v>12.69</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
       <c r="L44">
         <f>AVERAGE(G44:K44)</f>
-        <v>958.87599999999998</v>
+        <v>12.555</v>
       </c>
     </row>
     <row r="45" spans="5:12" x14ac:dyDescent="0.25">
@@ -7072,23 +7720,17 @@
         <v>5</v>
       </c>
       <c r="G45" s="1">
-        <v>976.38</v>
+        <v>17.16</v>
       </c>
       <c r="H45" s="1">
-        <v>960.97</v>
-      </c>
-      <c r="I45" s="1">
-        <v>980.09</v>
-      </c>
-      <c r="J45" s="1">
-        <v>959.6</v>
-      </c>
-      <c r="K45" s="1">
-        <v>974.55</v>
-      </c>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
       <c r="L45">
         <f t="shared" ref="L45:L48" si="2">AVERAGE(G45:K45)</f>
-        <v>970.31799999999998</v>
+        <v>17.130000000000003</v>
       </c>
     </row>
     <row r="46" spans="5:12" x14ac:dyDescent="0.25">
@@ -7097,23 +7739,17 @@
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>1854132</v>
+        <v>1670368</v>
       </c>
       <c r="H46" s="1">
-        <v>1868928</v>
-      </c>
-      <c r="I46" s="1">
-        <v>1852168</v>
-      </c>
-      <c r="J46" s="1">
-        <v>1867314</v>
-      </c>
-      <c r="K46" s="1">
-        <v>1860170</v>
-      </c>
+        <v>1669773</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
       <c r="L46">
         <f t="shared" si="2"/>
-        <v>1860542.4</v>
+        <v>1670070.5</v>
       </c>
     </row>
     <row r="47" spans="5:12" x14ac:dyDescent="0.25">
@@ -7122,23 +7758,17 @@
         <v>7</v>
       </c>
       <c r="G47" s="1">
-        <v>960.6</v>
+        <v>960.7</v>
       </c>
       <c r="H47" s="1">
-        <v>960.6</v>
-      </c>
-      <c r="I47" s="1">
-        <v>960.8</v>
-      </c>
-      <c r="J47" s="1">
-        <v>960.9</v>
-      </c>
-      <c r="K47" s="1">
-        <v>960.7</v>
-      </c>
+        <v>961</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
       <c r="L47">
         <f t="shared" si="2"/>
-        <v>960.72</v>
+        <v>960.85</v>
       </c>
     </row>
     <row r="48" spans="5:12" x14ac:dyDescent="0.25">
@@ -7147,23 +7777,17 @@
         <v>8</v>
       </c>
       <c r="G48" s="1">
-        <v>1930.19</v>
+        <v>1738.72</v>
       </c>
       <c r="H48" s="1">
-        <v>1945.53</v>
-      </c>
-      <c r="I48" s="1">
-        <v>1927.72</v>
-      </c>
-      <c r="J48" s="1">
-        <v>1943.35</v>
-      </c>
-      <c r="K48" s="1">
-        <v>1936.19</v>
-      </c>
+        <v>1737.57</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
       <c r="L48">
         <f t="shared" si="2"/>
-        <v>1936.5960000000002</v>
+        <v>1738.145</v>
       </c>
     </row>
     <row r="49" spans="5:11" x14ac:dyDescent="0.25">
@@ -7172,20 +7796,14 @@
         <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>330</v>
+        <v>86</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>330</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
     </row>
     <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" s="10"/>
@@ -7193,27 +7811,318 @@
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E51" s="8">
+        <v>4000</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E52" s="9"/>
+      <c r="F52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E53" s="9"/>
+      <c r="F53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E54" s="9"/>
+      <c r="F54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E55" s="9"/>
+      <c r="F55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="56" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E56" s="9"/>
+      <c r="F56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E57" s="9"/>
+      <c r="F57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="58" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E58" s="9"/>
+      <c r="F58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="1">
+        <v>965.1</v>
+      </c>
+      <c r="H58" s="1">
+        <v>950.06</v>
+      </c>
+      <c r="I58" s="1">
+        <v>968.17</v>
+      </c>
+      <c r="J58" s="1">
+        <v>950.04</v>
+      </c>
+      <c r="K58" s="1">
+        <v>961.01</v>
+      </c>
+    </row>
+    <row r="59" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E59" s="9"/>
+      <c r="F59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="1">
+        <v>976.38</v>
+      </c>
+      <c r="H59" s="1">
+        <v>960.97</v>
+      </c>
+      <c r="I59" s="1">
+        <v>980.09</v>
+      </c>
+      <c r="J59" s="1">
+        <v>959.6</v>
+      </c>
+      <c r="K59" s="1">
+        <v>974.55</v>
+      </c>
+    </row>
+    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E60" s="9"/>
+      <c r="F60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1854132</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1868928</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1852168</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1867314</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1860170</v>
+      </c>
+    </row>
+    <row r="61" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E61" s="9"/>
+      <c r="F61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="H61" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="I61" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="J61" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="K61" s="1">
+        <v>960.7</v>
+      </c>
+    </row>
+    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E62" s="9"/>
+      <c r="F62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1930.19</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1945.53</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1927.72</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1943.35</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1936.19</v>
+      </c>
+    </row>
+    <row r="63" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E63" s="9"/>
+      <c r="F63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="64" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E64" s="10"/>
+      <c r="F64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J64" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K64" s="1" t="s">
         <v>342</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E7:K7"/>
     <mergeCell ref="E9:E22"/>
     <mergeCell ref="E23:E36"/>
     <mergeCell ref="E37:E50"/>
+    <mergeCell ref="E51:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7222,10 +8131,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0A94C8-641F-492A-8CA6-73C854743563}">
-  <dimension ref="E7:L50"/>
+  <dimension ref="E7:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7960,7 +8869,7 @@
     </row>
     <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="8">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -8050,19 +8959,23 @@
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>1330</v>
+        <v>348.7</v>
       </c>
       <c r="H41" s="1">
-        <v>1360</v>
+        <v>323.89</v>
       </c>
       <c r="I41" s="1">
-        <v>1320</v>
-      </c>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+        <v>320.45</v>
+      </c>
+      <c r="J41" s="1">
+        <v>324</v>
+      </c>
+      <c r="K41" s="1">
+        <v>323.48</v>
+      </c>
       <c r="L41">
-        <f>AVERAGE(G41:I41)</f>
-        <v>1336.6666666666667</v>
+        <f t="shared" ref="L41:L48" si="1">AVERAGE(G41:K41)</f>
+        <v>328.10399999999998</v>
       </c>
     </row>
     <row r="42" spans="5:12" x14ac:dyDescent="0.25">
@@ -8079,10 +8992,14 @@
       <c r="I42" s="1">
         <v>0</v>
       </c>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
       <c r="L42">
-        <f t="shared" ref="L42:L50" si="1">AVERAGE(G42:I42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8092,19 +9009,23 @@
         <v>3</v>
       </c>
       <c r="G43" s="1">
-        <v>1810</v>
+        <v>964.56</v>
       </c>
       <c r="H43" s="1">
-        <v>1910</v>
+        <v>699.95</v>
       </c>
       <c r="I43" s="1">
-        <v>1880</v>
-      </c>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+        <v>786.23</v>
+      </c>
+      <c r="J43" s="1">
+        <v>727.41</v>
+      </c>
+      <c r="K43" s="1">
+        <v>583.57000000000005</v>
+      </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>1866.6666666666667</v>
+        <v>752.34399999999994</v>
       </c>
     </row>
     <row r="44" spans="5:12" x14ac:dyDescent="0.25">
@@ -8113,19 +9034,23 @@
         <v>4</v>
       </c>
       <c r="G44" s="1">
-        <v>1570</v>
+        <v>596.16999999999996</v>
       </c>
       <c r="H44" s="1">
-        <v>1600</v>
+        <v>416.47</v>
       </c>
       <c r="I44" s="1">
-        <v>1560</v>
-      </c>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+        <v>411.94</v>
+      </c>
+      <c r="J44" s="1">
+        <v>416.56</v>
+      </c>
+      <c r="K44" s="1">
+        <v>414.89</v>
+      </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>1576.6666666666667</v>
+        <v>451.20599999999996</v>
       </c>
     </row>
     <row r="45" spans="5:12" x14ac:dyDescent="0.25">
@@ -8134,19 +9059,23 @@
         <v>5</v>
       </c>
       <c r="G45" s="1">
-        <v>1590</v>
+        <v>706.12</v>
       </c>
       <c r="H45" s="1">
-        <v>1620</v>
+        <v>430.14</v>
       </c>
       <c r="I45" s="1">
-        <v>1570</v>
-      </c>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+        <v>426.76</v>
+      </c>
+      <c r="J45" s="1">
+        <v>432.18</v>
+      </c>
+      <c r="K45" s="1">
+        <v>427.77</v>
+      </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>1593.3333333333333</v>
+        <v>484.59400000000005</v>
       </c>
     </row>
     <row r="46" spans="5:12" x14ac:dyDescent="0.25">
@@ -8155,19 +9084,23 @@
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>1437701</v>
+        <v>12236167</v>
       </c>
       <c r="H46" s="1">
-        <v>1422240</v>
+        <v>1269508</v>
       </c>
       <c r="I46" s="1">
-        <v>1445244</v>
-      </c>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+        <v>1272795</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1269404</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1269899</v>
+      </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>1435061.6666666667</v>
+        <v>3463554.6</v>
       </c>
     </row>
     <row r="47" spans="5:12" x14ac:dyDescent="0.25">
@@ -8179,16 +9112,20 @@
         <v>960.7</v>
       </c>
       <c r="H47" s="1">
+        <v>961</v>
+      </c>
+      <c r="I47" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="J47" s="1">
+        <v>960.3</v>
+      </c>
+      <c r="K47" s="1">
         <v>960.9</v>
       </c>
-      <c r="I47" s="1">
-        <v>960.7</v>
-      </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>960.76666666666677</v>
+        <v>960.7</v>
       </c>
     </row>
     <row r="48" spans="5:12" x14ac:dyDescent="0.25">
@@ -8197,19 +9134,23 @@
         <v>8</v>
       </c>
       <c r="G48" s="1">
-        <v>1496.47</v>
+        <v>1297.0999999999999</v>
       </c>
       <c r="H48" s="1">
-        <v>1480.09</v>
+        <v>1321.03</v>
       </c>
       <c r="I48" s="1">
-        <v>1504.42</v>
-      </c>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+        <v>1324.94</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1321.82</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1321.62</v>
+      </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>1493.6599999999999</v>
+        <v>1317.3020000000001</v>
       </c>
     </row>
     <row r="49" spans="5:12" x14ac:dyDescent="0.25">
@@ -8218,18 +9159,22 @@
         <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>105</v>
+        <v>330</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>105</v>
+        <v>330</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+        <v>330</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="L49" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L49:L50" si="2">AVERAGE(G49:I49)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8239,27 +9184,288 @@
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E51" s="8">
+        <v>4000</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E52" s="9"/>
+      <c r="F52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E53" s="9"/>
+      <c r="F53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E54" s="9"/>
+      <c r="F54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E55" s="9"/>
+      <c r="F55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1330</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1360</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1320</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E56" s="9"/>
+      <c r="F56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E57" s="9"/>
+      <c r="F57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1810</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1910</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1880</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E58" s="9"/>
+      <c r="F58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1570</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1600</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1560</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E59" s="9"/>
+      <c r="F59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1590</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1620</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1570</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E60" s="9"/>
+      <c r="F60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1437701</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1422240</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1445244</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E61" s="9"/>
+      <c r="F61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="H61" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="I61" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E62" s="9"/>
+      <c r="F62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1496.47</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1480.09</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1504.42</v>
+      </c>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E63" s="9"/>
+      <c r="F63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E64" s="10"/>
+      <c r="F64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E7:K7"/>
     <mergeCell ref="E9:E22"/>
     <mergeCell ref="E23:E36"/>
     <mergeCell ref="E37:E50"/>
+    <mergeCell ref="E51:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8268,10 +9474,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BDC36D-13C2-4AA6-BA48-7C2002449037}">
-  <dimension ref="E7:L50"/>
+  <dimension ref="E7:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8925,7 +10131,7 @@
     </row>
     <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="8">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -9031,19 +10237,23 @@
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>1150</v>
+        <v>239</v>
       </c>
       <c r="H41" s="1">
-        <v>1190</v>
+        <v>242.73</v>
       </c>
       <c r="I41" s="1">
-        <v>1150</v>
-      </c>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+        <v>230.58</v>
+      </c>
+      <c r="J41" s="1">
+        <v>251.74</v>
+      </c>
+      <c r="K41" s="1">
+        <v>238.57</v>
+      </c>
       <c r="L41">
-        <f t="shared" si="0"/>
-        <v>1163.3333333333333</v>
+        <f t="shared" ref="L41:L48" si="1">AVERAGE(G41:K41)</f>
+        <v>240.52400000000003</v>
       </c>
     </row>
     <row r="42" spans="5:12" x14ac:dyDescent="0.25">
@@ -9060,10 +10270,14 @@
       <c r="I42" s="1">
         <v>0</v>
       </c>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
       <c r="L42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9073,19 +10287,23 @@
         <v>3</v>
       </c>
       <c r="G43" s="1">
-        <v>1710</v>
+        <v>438.31</v>
       </c>
       <c r="H43" s="1">
-        <v>1760</v>
+        <v>637.83000000000004</v>
       </c>
       <c r="I43" s="1">
-        <v>1530</v>
-      </c>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+        <v>408.65</v>
+      </c>
+      <c r="J43" s="1">
+        <v>501.6</v>
+      </c>
+      <c r="K43" s="1">
+        <v>549.44000000000005</v>
+      </c>
       <c r="L43">
-        <f t="shared" si="0"/>
-        <v>1666.6666666666667</v>
+        <f t="shared" si="1"/>
+        <v>507.166</v>
       </c>
     </row>
     <row r="44" spans="5:12" x14ac:dyDescent="0.25">
@@ -9094,19 +10312,23 @@
         <v>4</v>
       </c>
       <c r="G44" s="1">
-        <v>1360</v>
+        <v>313.54000000000002</v>
       </c>
       <c r="H44" s="1">
-        <v>1410</v>
+        <v>319.63</v>
       </c>
       <c r="I44" s="1">
-        <v>1360</v>
-      </c>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+        <v>304.70999999999998</v>
+      </c>
+      <c r="J44" s="1">
+        <v>327.76</v>
+      </c>
+      <c r="K44" s="1">
+        <v>312.66000000000003</v>
+      </c>
       <c r="L44">
-        <f t="shared" si="0"/>
-        <v>1376.6666666666667</v>
+        <f t="shared" si="1"/>
+        <v>315.66000000000003</v>
       </c>
     </row>
     <row r="45" spans="5:12" x14ac:dyDescent="0.25">
@@ -9115,19 +10337,23 @@
         <v>5</v>
       </c>
       <c r="G45" s="1">
-        <v>1380</v>
+        <v>325.89999999999998</v>
       </c>
       <c r="H45" s="1">
-        <v>1430</v>
+        <v>338.55</v>
       </c>
       <c r="I45" s="1">
-        <v>1370</v>
-      </c>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+        <v>316.27999999999997</v>
+      </c>
+      <c r="J45" s="1">
+        <v>339.68</v>
+      </c>
+      <c r="K45" s="1">
+        <v>323.74</v>
+      </c>
       <c r="L45">
-        <f t="shared" si="0"/>
-        <v>1393.3333333333333</v>
+        <f t="shared" si="1"/>
+        <v>328.83000000000004</v>
       </c>
     </row>
     <row r="46" spans="5:12" x14ac:dyDescent="0.25">
@@ -9136,19 +10362,23 @@
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>1561064</v>
+        <v>1356449</v>
       </c>
       <c r="H46" s="1">
-        <v>1529665</v>
+        <v>1352399</v>
       </c>
       <c r="I46" s="1">
-        <v>1562279</v>
-      </c>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+        <v>1365724</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1342642</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1356925</v>
+      </c>
       <c r="L46">
-        <f t="shared" si="0"/>
-        <v>1551002.6666666667</v>
+        <f t="shared" si="1"/>
+        <v>1354827.8</v>
       </c>
     </row>
     <row r="47" spans="5:12" x14ac:dyDescent="0.25">
@@ -9157,19 +10387,23 @@
         <v>7</v>
       </c>
       <c r="G47" s="1">
-        <v>960.4</v>
+        <v>960.9</v>
       </c>
       <c r="H47" s="1">
-        <v>960.7</v>
+        <v>961</v>
       </c>
       <c r="I47" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="J47" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="K47" s="1">
         <v>960.8</v>
       </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
       <c r="L47">
-        <f t="shared" si="0"/>
-        <v>960.63333333333321</v>
+        <f t="shared" si="1"/>
+        <v>960.83999999999992</v>
       </c>
     </row>
     <row r="48" spans="5:12" x14ac:dyDescent="0.25">
@@ -9178,19 +10412,23 @@
         <v>8</v>
       </c>
       <c r="G48" s="1">
-        <v>1625.35</v>
+        <v>1411.65</v>
       </c>
       <c r="H48" s="1">
-        <v>1592.18</v>
+        <v>1407.33</v>
       </c>
       <c r="I48" s="1">
-        <v>1625.98</v>
-      </c>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+        <v>1421.74</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1397.26</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1412.22</v>
+      </c>
       <c r="L48">
-        <f t="shared" si="0"/>
-        <v>1614.5033333333333</v>
+        <f t="shared" si="1"/>
+        <v>1410.0400000000002</v>
       </c>
     </row>
     <row r="49" spans="5:12" x14ac:dyDescent="0.25">
@@ -9199,16 +10437,20 @@
         <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+        <v>365</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>361</v>
+      </c>
       <c r="L49" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -9220,27 +10462,288 @@
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
+        <v>366</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="L50" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E51" s="8">
+        <v>4000</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E52" s="9"/>
+      <c r="F52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E53" s="9"/>
+      <c r="F53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E54" s="9"/>
+      <c r="F54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E55" s="9"/>
+      <c r="F55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1150</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1190</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1150</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E56" s="9"/>
+      <c r="F56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E57" s="9"/>
+      <c r="F57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1710</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1760</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1530</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E58" s="9"/>
+      <c r="F58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1360</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1410</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1360</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E59" s="9"/>
+      <c r="F59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1380</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1430</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1370</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E60" s="9"/>
+      <c r="F60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1561064</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1529665</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1562279</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E61" s="9"/>
+      <c r="F61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="1">
+        <v>960.4</v>
+      </c>
+      <c r="H61" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="I61" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E62" s="9"/>
+      <c r="F62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1625.35</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1592.18</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1625.98</v>
+      </c>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E63" s="9"/>
+      <c r="F63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E64" s="10"/>
+      <c r="F64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E7:K7"/>
     <mergeCell ref="E9:E22"/>
     <mergeCell ref="E23:E36"/>
     <mergeCell ref="E37:E50"/>
+    <mergeCell ref="E51:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Wyniki 3/S2.xlsx
+++ b/Wyniki 3/S2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDAEBB5-BD28-45B0-A5FC-D72742A27454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E63CC20-E6D1-426B-B475-EF904A8EF53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REST" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="389">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -1194,6 +1194,21 @@
   </si>
   <si>
     <t>828MB</t>
+  </si>
+  <si>
+    <t>827MB</t>
+  </si>
+  <si>
+    <t>260MB</t>
+  </si>
+  <si>
+    <t>258MB</t>
+  </si>
+  <si>
+    <t>167MB</t>
+  </si>
+  <si>
+    <t>165MB</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1354,6 +1369,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1881,10 +1905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E7:R50"/>
+  <dimension ref="E7:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="D27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2943,25 +2967,29 @@
     </row>
     <row r="37" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E37" s="8">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>284</v>
+      <c r="G37" s="1">
+        <v>235</v>
+      </c>
+      <c r="H37" s="1">
+        <v>243.97</v>
+      </c>
+      <c r="I37" s="1">
+        <v>234.64</v>
+      </c>
+      <c r="J37" s="1">
+        <v>323.58</v>
+      </c>
+      <c r="K37" s="1">
+        <v>233.32</v>
+      </c>
+      <c r="L37">
+        <f>AVERAGE(G37:K37)</f>
+        <v>254.102</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>119</v>
@@ -2984,20 +3012,24 @@
       <c r="F38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>285</v>
+      <c r="G38" s="1">
+        <v>555.9</v>
+      </c>
+      <c r="H38" s="1">
+        <v>492.3</v>
+      </c>
+      <c r="I38" s="1">
+        <v>389.43</v>
+      </c>
+      <c r="J38" s="1">
+        <v>411.45</v>
+      </c>
+      <c r="K38" s="1">
+        <v>423.43</v>
+      </c>
+      <c r="L38">
+        <f t="shared" ref="L38:L50" si="0">AVERAGE(G38:K38)</f>
+        <v>454.50200000000007</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>120</v>
@@ -3020,20 +3052,24 @@
       <c r="F39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>80</v>
+      <c r="G39" s="1">
+        <v>316.05</v>
+      </c>
+      <c r="H39" s="1">
+        <v>308.06</v>
+      </c>
+      <c r="I39" s="1">
+        <v>295.61</v>
+      </c>
+      <c r="J39" s="1">
+        <v>293.72000000000003</v>
+      </c>
+      <c r="K39" s="1">
+        <v>294.22000000000003</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>301.53200000000004</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>121</v>
@@ -3056,20 +3092,24 @@
       <c r="F40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>113</v>
+      <c r="G40" s="1">
+        <v>326.67</v>
+      </c>
+      <c r="H40" s="1">
+        <v>316.99</v>
+      </c>
+      <c r="I40" s="1">
+        <v>303.05</v>
+      </c>
+      <c r="J40" s="1">
+        <v>300.94</v>
+      </c>
+      <c r="K40" s="1">
+        <v>303.06</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>310.142</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>122</v>
@@ -3092,20 +3132,24 @@
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>286</v>
+      <c r="G41" s="1">
+        <v>117.47</v>
+      </c>
+      <c r="H41" s="1">
+        <v>121.92</v>
+      </c>
+      <c r="I41" s="1">
+        <v>117.25</v>
+      </c>
+      <c r="J41" s="1">
+        <v>116.22</v>
+      </c>
+      <c r="K41" s="1">
+        <v>116.58</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>117.88800000000001</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>123</v>
@@ -3143,6 +3187,10 @@
       <c r="K42" s="1">
         <v>0</v>
       </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N42" s="1">
         <v>0</v>
       </c>
@@ -3164,20 +3212,24 @@
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>287</v>
+      <c r="G43" s="1">
+        <v>298.26</v>
+      </c>
+      <c r="H43" s="1">
+        <v>263.81</v>
+      </c>
+      <c r="I43" s="1">
+        <v>210.17</v>
+      </c>
+      <c r="J43" s="1">
+        <v>210.77</v>
+      </c>
+      <c r="K43" s="1">
+        <v>225.35</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>241.67199999999997</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>124</v>
@@ -3200,20 +3252,24 @@
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>288</v>
+      <c r="G44" s="1">
+        <v>158.68</v>
+      </c>
+      <c r="H44" s="1">
+        <v>154.63</v>
+      </c>
+      <c r="I44" s="1">
+        <v>148.15</v>
+      </c>
+      <c r="J44" s="1">
+        <v>147.18</v>
+      </c>
+      <c r="K44" s="1">
+        <v>147.6</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>151.24800000000002</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>125</v>
@@ -3236,20 +3292,24 @@
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>289</v>
+      <c r="G45" s="1">
+        <v>164.01</v>
+      </c>
+      <c r="H45" s="1">
+        <v>159.4</v>
+      </c>
+      <c r="I45" s="1">
+        <v>152.22999999999999</v>
+      </c>
+      <c r="J45" s="1">
+        <v>151.07</v>
+      </c>
+      <c r="K45" s="1">
+        <v>152.29</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>155.80000000000001</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>126</v>
@@ -3273,19 +3333,23 @@
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>3089760</v>
+        <v>2721668</v>
       </c>
       <c r="H46" s="1">
-        <v>3011116</v>
+        <v>2702178</v>
       </c>
       <c r="I46" s="1">
-        <v>3090560</v>
+        <v>2722580</v>
       </c>
       <c r="J46" s="1">
-        <v>3079152</v>
+        <v>2727136</v>
       </c>
       <c r="K46" s="1">
-        <v>3065210</v>
+        <v>2725462</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>2719804.8</v>
       </c>
       <c r="N46" s="1">
         <v>518326</v>
@@ -3309,19 +3373,23 @@
         <v>7</v>
       </c>
       <c r="G47" s="1">
-        <v>961.8</v>
+        <v>960.9</v>
       </c>
       <c r="H47" s="1">
-        <v>960.9</v>
+        <v>960.8</v>
       </c>
       <c r="I47" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="J47" s="1">
         <v>960.6</v>
       </c>
-      <c r="J47" s="1">
-        <v>960.9</v>
-      </c>
       <c r="K47" s="1">
-        <v>960.7</v>
+        <v>960.8</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>960.75999999999988</v>
       </c>
       <c r="N47" s="1">
         <v>960.7</v>
@@ -3345,19 +3413,23 @@
         <v>8</v>
       </c>
       <c r="G48" s="1">
-        <v>3212.34</v>
+        <v>2832.48</v>
       </c>
       <c r="H48" s="1">
-        <v>3133.65</v>
+        <v>2812.51</v>
       </c>
       <c r="I48" s="1">
-        <v>3217.39</v>
+        <v>2834</v>
       </c>
       <c r="J48" s="1">
-        <v>3204.52</v>
+        <v>2838.91</v>
       </c>
       <c r="K48" s="1">
-        <v>3190.72</v>
+        <v>2836.31</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>2830.8419999999996</v>
       </c>
       <c r="N48" s="1">
         <v>539.52</v>
@@ -3381,19 +3453,23 @@
         <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>190</v>
+        <v>104</v>
+      </c>
+      <c r="L49" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>127</v>
@@ -3417,19 +3493,23 @@
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>191</v>
+        <v>385</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>273</v>
+        <v>386</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>191</v>
+        <v>385</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>283</v>
+        <v>385</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>290</v>
+        <v>385</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>128</v>
@@ -3447,12 +3527,309 @@
         <v>128</v>
       </c>
     </row>
+    <row r="51" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E51" s="11">
+        <v>4000</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E52" s="12"/>
+      <c r="F52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E53" s="12"/>
+      <c r="F53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E54" s="12"/>
+      <c r="F54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E55" s="12"/>
+      <c r="F55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="56" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E56" s="12"/>
+      <c r="F56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E57" s="12"/>
+      <c r="F57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="58" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E58" s="12"/>
+      <c r="F58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="59" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E59" s="12"/>
+      <c r="F59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E60" s="12"/>
+      <c r="F60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="2">
+        <v>3089760</v>
+      </c>
+      <c r="H60" s="2">
+        <v>3011116</v>
+      </c>
+      <c r="I60" s="2">
+        <v>3090560</v>
+      </c>
+      <c r="J60" s="2">
+        <v>3079152</v>
+      </c>
+      <c r="K60" s="2">
+        <v>3065210</v>
+      </c>
+    </row>
+    <row r="61" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E61" s="12"/>
+      <c r="F61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="2">
+        <v>961.8</v>
+      </c>
+      <c r="H61" s="2">
+        <v>960.9</v>
+      </c>
+      <c r="I61" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="J61" s="2">
+        <v>960.9</v>
+      </c>
+      <c r="K61" s="2">
+        <v>960.7</v>
+      </c>
+    </row>
+    <row r="62" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E62" s="12"/>
+      <c r="F62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="2">
+        <v>3212.34</v>
+      </c>
+      <c r="H62" s="2">
+        <v>3133.65</v>
+      </c>
+      <c r="I62" s="2">
+        <v>3217.39</v>
+      </c>
+      <c r="J62" s="2">
+        <v>3204.52</v>
+      </c>
+      <c r="K62" s="2">
+        <v>3190.72</v>
+      </c>
+    </row>
+    <row r="63" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E63" s="12"/>
+      <c r="F63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E64" s="13"/>
+      <c r="F64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E7:K7"/>
     <mergeCell ref="E9:E22"/>
     <mergeCell ref="E23:E36"/>
     <mergeCell ref="E37:E50"/>
+    <mergeCell ref="E51:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3460,10 +3837,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E427240-8CAA-40AB-9EE3-C007F0D8C5C2}">
-  <dimension ref="E7:K50"/>
+  <dimension ref="E7:L64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16:L50"/>
+    <sheetView tabSelected="1" topLeftCell="D31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4015,7 +4392,7 @@
         <v>839084</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E33" s="9"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -4036,7 +4413,7 @@
         <v>960.7</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E34" s="9"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -4057,7 +4434,7 @@
         <v>873.39</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E35" s="9"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -4078,7 +4455,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" s="10"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -4099,9 +4476,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="8">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -4122,7 +4499,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E38" s="9"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -4143,7 +4520,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E39" s="9"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -4164,7 +4541,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E40" s="9"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -4185,28 +4562,32 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E41" s="9"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="G41" s="1">
+        <v>8.02</v>
+      </c>
+      <c r="H41" s="1">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="I41" s="1">
+        <v>9</v>
+      </c>
+      <c r="J41" s="3">
+        <v>6.27</v>
+      </c>
+      <c r="K41" s="3">
+        <v>21.38</v>
+      </c>
+      <c r="L41">
+        <f>AVERAGE(G41:J41)</f>
+        <v>7.875</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E42" s="9"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -4226,181 +4607,514 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <f t="shared" ref="L42:L50" si="0">AVERAGE(G42:J42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43" s="9"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="G43" s="1">
+        <v>92.03</v>
+      </c>
+      <c r="H43" s="1">
+        <v>173.22</v>
+      </c>
+      <c r="I43" s="1">
+        <v>222.29</v>
+      </c>
+      <c r="J43" s="3">
+        <v>117.44</v>
+      </c>
+      <c r="K43" s="3">
+        <v>220.1</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>151.245</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44" s="9"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G44" s="1">
-        <v>685.55</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H44" s="1">
-        <v>695.86</v>
+        <v>16.03</v>
       </c>
       <c r="I44" s="1">
-        <v>694.87</v>
+        <v>19.32</v>
       </c>
       <c r="J44" s="3">
-        <v>698.12</v>
+        <v>11.88</v>
       </c>
       <c r="K44" s="3">
-        <v>692.49</v>
-      </c>
-    </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+        <v>44.68</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>15.832500000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E45" s="9"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="1">
-        <v>696.54</v>
+        <v>26.97</v>
       </c>
       <c r="H45" s="1">
-        <v>704.24</v>
+        <v>26.55</v>
       </c>
       <c r="I45" s="1">
-        <v>705.63</v>
+        <v>30.18</v>
       </c>
       <c r="J45" s="3">
-        <v>709.01</v>
+        <v>19.309999999999999</v>
       </c>
       <c r="K45" s="3">
-        <v>702.28</v>
-      </c>
-    </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+        <v>53.73</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>25.752499999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E46" s="9"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>2136264</v>
+        <v>1667121</v>
       </c>
       <c r="H46" s="1">
-        <v>2123005</v>
+        <v>1666813</v>
       </c>
       <c r="I46" s="1">
-        <v>2124906</v>
+        <v>1665531</v>
       </c>
       <c r="J46" s="3">
-        <v>2122475</v>
+        <v>1670044</v>
       </c>
       <c r="K46" s="3">
-        <v>2129167</v>
-      </c>
-    </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+        <v>1645320</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>1667377.25</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E47" s="9"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G47" s="1">
-        <v>960.9</v>
+        <v>960.5</v>
       </c>
       <c r="H47" s="1">
         <v>960.6</v>
       </c>
       <c r="I47" s="1">
-        <v>960.9</v>
+        <v>961</v>
       </c>
       <c r="J47" s="3">
-        <v>960.6</v>
+        <v>960.8</v>
       </c>
       <c r="K47" s="3">
-        <v>960.8</v>
-      </c>
-    </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+        <v>960.5</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>960.72499999999991</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E48" s="9"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="1">
-        <v>2223.2199999999998</v>
+        <v>1735.67</v>
       </c>
       <c r="H48" s="1">
-        <v>2210.17</v>
+        <v>1735.23</v>
       </c>
       <c r="I48" s="1">
-        <v>2211.44</v>
+        <v>1733.19</v>
       </c>
       <c r="J48" s="3">
-        <v>2209.42</v>
+        <v>1738.13</v>
       </c>
       <c r="K48" s="3">
-        <v>2216.09</v>
-      </c>
-    </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+        <v>1713.03</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>1735.5550000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49" s="9"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="L49" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" s="10"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E51" s="11">
+        <v>4000</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E52" s="12"/>
+      <c r="F52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E53" s="12"/>
+      <c r="F53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E54" s="12"/>
+      <c r="F54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E55" s="12"/>
+      <c r="F55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E56" s="12"/>
+      <c r="F56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E57" s="12"/>
+      <c r="F57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E58" s="12"/>
+      <c r="F58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="2">
+        <v>685.55</v>
+      </c>
+      <c r="H58" s="2">
+        <v>695.86</v>
+      </c>
+      <c r="I58" s="2">
+        <v>694.87</v>
+      </c>
+      <c r="J58" s="4">
+        <v>698.12</v>
+      </c>
+      <c r="K58" s="4">
+        <v>692.49</v>
+      </c>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E59" s="12"/>
+      <c r="F59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="2">
+        <v>696.54</v>
+      </c>
+      <c r="H59" s="2">
+        <v>704.24</v>
+      </c>
+      <c r="I59" s="2">
+        <v>705.63</v>
+      </c>
+      <c r="J59" s="4">
+        <v>709.01</v>
+      </c>
+      <c r="K59" s="4">
+        <v>702.28</v>
+      </c>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E60" s="12"/>
+      <c r="F60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="2">
+        <v>2136264</v>
+      </c>
+      <c r="H60" s="2">
+        <v>2123005</v>
+      </c>
+      <c r="I60" s="2">
+        <v>2124906</v>
+      </c>
+      <c r="J60" s="4">
+        <v>2122475</v>
+      </c>
+      <c r="K60" s="4">
+        <v>2129167</v>
+      </c>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E61" s="12"/>
+      <c r="F61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="2">
+        <v>960.9</v>
+      </c>
+      <c r="H61" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="I61" s="2">
+        <v>960.9</v>
+      </c>
+      <c r="J61" s="4">
+        <v>960.6</v>
+      </c>
+      <c r="K61" s="4">
+        <v>960.8</v>
+      </c>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E62" s="12"/>
+      <c r="F62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="2">
+        <v>2223.2199999999998</v>
+      </c>
+      <c r="H62" s="2">
+        <v>2210.17</v>
+      </c>
+      <c r="I62" s="2">
+        <v>2211.44</v>
+      </c>
+      <c r="J62" s="4">
+        <v>2209.42</v>
+      </c>
+      <c r="K62" s="4">
+        <v>2216.09</v>
+      </c>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E63" s="12"/>
+      <c r="F63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E64" s="13"/>
+      <c r="F64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H64" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I64" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J64" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="K64" s="4" t="s">
         <v>180</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E7:K7"/>
     <mergeCell ref="E9:E22"/>
     <mergeCell ref="E23:E36"/>
     <mergeCell ref="E37:E50"/>
+    <mergeCell ref="E51:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4408,10 +5122,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FCC0AA-C984-4903-81D8-D871D2663DA5}">
-  <dimension ref="E7:K64"/>
+  <dimension ref="E7:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView topLeftCell="E31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4964,7 +5678,7 @@
         <v>838800</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E33" s="9"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -4985,7 +5699,7 @@
         <v>960.4</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E34" s="9"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -5006,7 +5720,7 @@
         <v>873.34</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E35" s="9"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -5027,7 +5741,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" s="10"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -5048,7 +5762,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="8">
         <v>2000</v>
       </c>
@@ -5071,7 +5785,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E38" s="9"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -5092,7 +5806,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E39" s="9"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -5113,7 +5827,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E40" s="9"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -5134,7 +5848,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E41" s="9"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -5154,8 +5868,12 @@
       <c r="K41" s="1">
         <v>354.4</v>
       </c>
-    </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <f>AVERAGE(G41:K41)</f>
+        <v>359.06000000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E42" s="9"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -5175,8 +5893,12 @@
       <c r="K42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <f t="shared" ref="L42:L50" si="0">AVERAGE(G42:K42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43" s="9"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -5196,8 +5918,12 @@
       <c r="K43" s="1">
         <v>577.41999999999996</v>
       </c>
-    </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>596.70799999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44" s="9"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -5217,8 +5943,12 @@
       <c r="K44" s="1">
         <v>427.61</v>
       </c>
-    </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>433.62799999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E45" s="9"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -5238,8 +5968,12 @@
       <c r="K45" s="1">
         <v>433.92</v>
       </c>
-    </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>440.96600000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E46" s="9"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -5259,8 +5993,12 @@
       <c r="K46" s="1">
         <v>1240888</v>
       </c>
-    </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>1236687.8</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E47" s="9"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -5280,8 +6018,12 @@
       <c r="K47" s="1">
         <v>960.7</v>
       </c>
-    </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>960.68000000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E48" s="9"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -5301,8 +6043,12 @@
       <c r="K48" s="1">
         <v>1291.69</v>
       </c>
-    </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>1287.3380000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49" s="9"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -5322,8 +6068,12 @@
       <c r="K49" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L49" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" s="10"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -5343,8 +6093,12 @@
       <c r="K50" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E51" s="8">
         <v>4000</v>
       </c>
@@ -5367,7 +6121,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E52" s="9"/>
       <c r="F52" s="1" t="s">
         <v>14</v>
@@ -5388,7 +6142,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E53" s="9"/>
       <c r="F53" s="1" t="s">
         <v>15</v>
@@ -5409,7 +6163,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E54" s="9"/>
       <c r="F54" s="1" t="s">
         <v>16</v>
@@ -5430,7 +6184,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E55" s="9"/>
       <c r="F55" s="1" t="s">
         <v>1</v>
@@ -5451,7 +6205,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E56" s="9"/>
       <c r="F56" s="1" t="s">
         <v>2</v>
@@ -5472,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E57" s="9"/>
       <c r="F57" s="1" t="s">
         <v>3</v>
@@ -5493,7 +6247,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E58" s="9"/>
       <c r="F58" s="1" t="s">
         <v>4</v>
@@ -5514,7 +6268,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E59" s="9"/>
       <c r="F59" s="1" t="s">
         <v>5</v>
@@ -5535,7 +6289,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E60" s="9"/>
       <c r="F60" s="1" t="s">
         <v>6</v>
@@ -5556,7 +6310,7 @@
         <v>1642210</v>
       </c>
     </row>
-    <row r="61" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E61" s="9"/>
       <c r="F61" s="1" t="s">
         <v>7</v>
@@ -5577,7 +6331,7 @@
         <v>960.6</v>
       </c>
     </row>
-    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E62" s="9"/>
       <c r="F62" s="1" t="s">
         <v>8</v>
@@ -5598,7 +6352,7 @@
         <v>1709.57</v>
       </c>
     </row>
-    <row r="63" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E63" s="9"/>
       <c r="F63" s="1" t="s">
         <v>11</v>
@@ -5619,7 +6373,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E64" s="10"/>
       <c r="F64" s="1" t="s">
         <v>9</v>
@@ -5655,10 +6409,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33E3BDB-BD67-41A1-991C-2FB34B0212C5}">
-  <dimension ref="E7:K64"/>
+  <dimension ref="E7:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView topLeftCell="E27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6210,7 +6964,7 @@
         <v>838747</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E33" s="9"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -6231,7 +6985,7 @@
         <v>960.4</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E34" s="9"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -6252,7 +7006,7 @@
         <v>873.32</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E35" s="9"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -6273,7 +7027,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" s="10"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -6294,7 +7048,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="8">
         <v>2000</v>
       </c>
@@ -6317,7 +7071,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E38" s="9"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -6338,7 +7092,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E39" s="9"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -6359,7 +7113,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E40" s="9"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -6380,7 +7134,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E41" s="9"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -6400,8 +7154,12 @@
       <c r="K41" s="1">
         <v>331.54</v>
       </c>
-    </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <f>AVERAGE(G41:K41)</f>
+        <v>332.89800000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E42" s="9"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -6421,8 +7179,12 @@
       <c r="K42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <f t="shared" ref="L42:L50" si="0">AVERAGE(G42:K42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43" s="9"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -6442,8 +7204,12 @@
       <c r="K43" s="1">
         <v>487</v>
       </c>
-    </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>543.53199999999993</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44" s="9"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -6463,8 +7229,12 @@
       <c r="K44" s="1">
         <v>400.96</v>
       </c>
-    </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>402.66800000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E45" s="9"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -6484,8 +7254,12 @@
       <c r="K45" s="1">
         <v>407.3</v>
       </c>
-    </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>409.21599999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E46" s="9"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -6505,8 +7279,12 @@
       <c r="K46" s="1">
         <v>1262197</v>
       </c>
-    </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>1260940.2</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E47" s="9"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -6526,8 +7304,12 @@
       <c r="K47" s="1">
         <v>960.8</v>
       </c>
-    </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>960.7</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E48" s="9"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -6547,8 +7329,12 @@
       <c r="K48" s="1">
         <v>1313.69</v>
       </c>
-    </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>1312.5260000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49" s="9"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -6568,8 +7354,12 @@
       <c r="K49" s="1" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L49" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" s="10"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -6589,8 +7379,12 @@
       <c r="K50" s="1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E51" s="8">
         <v>4000</v>
       </c>
@@ -6613,7 +7407,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E52" s="9"/>
       <c r="F52" s="1" t="s">
         <v>14</v>
@@ -6634,7 +7428,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E53" s="9"/>
       <c r="F53" s="1" t="s">
         <v>15</v>
@@ -6655,7 +7449,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E54" s="9"/>
       <c r="F54" s="1" t="s">
         <v>16</v>
@@ -6676,7 +7470,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E55" s="9"/>
       <c r="F55" s="1" t="s">
         <v>1</v>
@@ -6697,7 +7491,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E56" s="9"/>
       <c r="F56" s="1" t="s">
         <v>2</v>
@@ -6718,7 +7512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E57" s="9"/>
       <c r="F57" s="1" t="s">
         <v>3</v>
@@ -6739,7 +7533,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E58" s="9"/>
       <c r="F58" s="1" t="s">
         <v>4</v>
@@ -6760,7 +7554,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E59" s="9"/>
       <c r="F59" s="1" t="s">
         <v>5</v>
@@ -6781,7 +7575,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E60" s="9"/>
       <c r="F60" s="1" t="s">
         <v>6</v>
@@ -6802,7 +7596,7 @@
         <v>1707670</v>
       </c>
     </row>
-    <row r="61" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E61" s="9"/>
       <c r="F61" s="1" t="s">
         <v>7</v>
@@ -6823,7 +7617,7 @@
         <v>960.5</v>
       </c>
     </row>
-    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E62" s="9"/>
       <c r="F62" s="1" t="s">
         <v>8</v>
@@ -6844,7 +7638,7 @@
         <v>1777.84</v>
       </c>
     </row>
-    <row r="63" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E63" s="9"/>
       <c r="F63" s="1" t="s">
         <v>11</v>
@@ -6865,7 +7659,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E64" s="10"/>
       <c r="F64" s="1" t="s">
         <v>9</v>
@@ -6903,8 +7697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1C407F-A9FB-4106-8CC9-34E1EF3B9F3E}">
   <dimension ref="E7:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N59" sqref="N59"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7661,9 +8455,17 @@
       <c r="H41" s="1">
         <v>6.4</v>
       </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="I41" s="1">
+        <v>7.37</v>
+      </c>
+      <c r="J41" s="1">
+        <v>5.35</v>
+      </c>
       <c r="K41" s="1"/>
+      <c r="L41">
+        <f>AVERAGE(G41:J41)</f>
+        <v>6.2925000000000004</v>
+      </c>
     </row>
     <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E42" s="9"/>
@@ -7676,9 +8478,17 @@
       <c r="H42" s="1">
         <v>0</v>
       </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
       <c r="K42" s="1"/>
+      <c r="L42">
+        <f t="shared" ref="L42:L50" si="2">AVERAGE(G42:J42)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43" s="9"/>
@@ -7691,9 +8501,17 @@
       <c r="H43" s="1">
         <v>162.85</v>
       </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="I43" s="1">
+        <v>327.88</v>
+      </c>
+      <c r="J43" s="1">
+        <v>157.34</v>
+      </c>
       <c r="K43" s="1"/>
+      <c r="L43">
+        <f t="shared" si="2"/>
+        <v>209.0025</v>
+      </c>
     </row>
     <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44" s="9"/>
@@ -7706,12 +8524,16 @@
       <c r="H44" s="1">
         <v>12.69</v>
       </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="I44" s="1">
+        <v>10.37</v>
+      </c>
+      <c r="J44" s="1">
+        <v>10.9</v>
+      </c>
       <c r="K44" s="1"/>
       <c r="L44">
-        <f>AVERAGE(G44:K44)</f>
-        <v>12.555</v>
+        <f t="shared" si="2"/>
+        <v>11.594999999999999</v>
       </c>
     </row>
     <row r="45" spans="5:12" x14ac:dyDescent="0.25">
@@ -7725,12 +8547,16 @@
       <c r="H45" s="1">
         <v>17.100000000000001</v>
       </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="I45" s="1">
+        <v>17.71</v>
+      </c>
+      <c r="J45" s="1">
+        <v>14.35</v>
+      </c>
       <c r="K45" s="1"/>
       <c r="L45">
-        <f t="shared" ref="L45:L48" si="2">AVERAGE(G45:K45)</f>
-        <v>17.130000000000003</v>
+        <f t="shared" si="2"/>
+        <v>16.580000000000002</v>
       </c>
     </row>
     <row r="46" spans="5:12" x14ac:dyDescent="0.25">
@@ -7744,12 +8570,16 @@
       <c r="H46" s="1">
         <v>1669773</v>
       </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="I46" s="1">
+        <v>1668202</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1671535</v>
+      </c>
       <c r="K46" s="1"/>
       <c r="L46">
         <f t="shared" si="2"/>
-        <v>1670070.5</v>
+        <v>1669969.5</v>
       </c>
     </row>
     <row r="47" spans="5:12" x14ac:dyDescent="0.25">
@@ -7763,12 +8593,16 @@
       <c r="H47" s="1">
         <v>961</v>
       </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="I47" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="J47" s="1">
+        <v>960.4</v>
+      </c>
       <c r="K47" s="1"/>
       <c r="L47">
         <f t="shared" si="2"/>
-        <v>960.85</v>
+        <v>960.75</v>
       </c>
     </row>
     <row r="48" spans="5:12" x14ac:dyDescent="0.25">
@@ -7782,15 +8616,19 @@
       <c r="H48" s="1">
         <v>1737.57</v>
       </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="I48" s="1">
+        <v>1736.01</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1740.5</v>
+      </c>
       <c r="K48" s="1"/>
       <c r="L48">
         <f t="shared" si="2"/>
-        <v>1738.145</v>
-      </c>
-    </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+        <v>1738.2</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49" s="9"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -7801,11 +8639,19 @@
       <c r="H49" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L49" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" s="10"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -7816,11 +8662,19 @@
       <c r="H50" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L50" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E51" s="8">
         <v>4000</v>
       </c>
@@ -7843,7 +8697,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E52" s="9"/>
       <c r="F52" s="1" t="s">
         <v>14</v>
@@ -7864,7 +8718,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E53" s="9"/>
       <c r="F53" s="1" t="s">
         <v>15</v>
@@ -7885,7 +8739,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E54" s="9"/>
       <c r="F54" s="1" t="s">
         <v>16</v>
@@ -7906,7 +8760,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E55" s="9"/>
       <c r="F55" s="1" t="s">
         <v>1</v>
@@ -7927,7 +8781,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="56" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E56" s="9"/>
       <c r="F56" s="1" t="s">
         <v>2</v>
@@ -7948,7 +8802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E57" s="9"/>
       <c r="F57" s="1" t="s">
         <v>3</v>
@@ -7969,7 +8823,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="58" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E58" s="9"/>
       <c r="F58" s="1" t="s">
         <v>4</v>
@@ -7990,7 +8844,7 @@
         <v>961.01</v>
       </c>
     </row>
-    <row r="59" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E59" s="9"/>
       <c r="F59" s="1" t="s">
         <v>5</v>
@@ -8011,7 +8865,7 @@
         <v>974.55</v>
       </c>
     </row>
-    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E60" s="9"/>
       <c r="F60" s="1" t="s">
         <v>6</v>
@@ -8032,7 +8886,7 @@
         <v>1860170</v>
       </c>
     </row>
-    <row r="61" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E61" s="9"/>
       <c r="F61" s="1" t="s">
         <v>7</v>
@@ -8053,7 +8907,7 @@
         <v>960.7</v>
       </c>
     </row>
-    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E62" s="9"/>
       <c r="F62" s="1" t="s">
         <v>8</v>
@@ -8074,7 +8928,7 @@
         <v>1936.19</v>
       </c>
     </row>
-    <row r="63" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E63" s="9"/>
       <c r="F63" s="1" t="s">
         <v>11</v>
@@ -8095,7 +8949,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="64" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E64" s="10"/>
       <c r="F64" s="1" t="s">
         <v>9</v>
@@ -8133,8 +8987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0A94C8-641F-492A-8CA6-73C854743563}">
   <dimension ref="E7:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q50" sqref="Q50"/>
+    <sheetView topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9084,7 +9938,7 @@
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>12236167</v>
+        <v>1236167</v>
       </c>
       <c r="H46" s="1">
         <v>1269508</v>
@@ -9100,7 +9954,7 @@
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>3463554.6</v>
+        <v>1263554.6000000001</v>
       </c>
     </row>
     <row r="47" spans="5:12" x14ac:dyDescent="0.25">
@@ -9476,7 +10330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BDC36D-13C2-4AA6-BA48-7C2002449037}">
   <dimension ref="E7:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E35" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
